--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C92C369-7B7D-461A-94D7-C323E556300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93652D40-0712-4CF0-9363-96CB8C78968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51675" yWindow="0" windowWidth="24000" windowHeight="20565" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-45990" yWindow="60" windowWidth="28410" windowHeight="20415" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="745">
   <si>
     <t>GOOG</t>
   </si>
@@ -2286,6 +2286,9 @@
   </si>
   <si>
     <t>WW28-day</t>
+  </si>
+  <si>
+    <t>MC</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2372,11 +2375,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,21 +2711,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA33316-214D-4B4A-B004-8F085269D09A}">
   <dimension ref="A1:V577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2741,7 +2743,7 @@
       <c r="F1" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="2" t="s">
         <v>741</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2749,13 +2751,16 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>744</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>723</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="2" t="s">
         <v>740</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -2775,7 +2780,7 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2">
@@ -2787,7 +2792,7 @@
       <c r="F3" s="2">
         <v>2818</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="2">
         <v>1257</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2805,7 +2810,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2">
@@ -2817,7 +2822,7 @@
       <c r="F4" s="2">
         <v>1079</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="2">
         <v>423.1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2838,7 +2843,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
@@ -2850,7 +2855,7 @@
       <c r="F5" s="2">
         <v>562.1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="2">
         <v>277.60000000000002</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2868,7 +2873,7 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2">
@@ -2880,7 +2885,7 @@
       <c r="F6" s="2">
         <v>74.86</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="2">
         <v>50.16</v>
       </c>
     </row>
@@ -2904,7 +2909,7 @@
       <c r="F7" s="4">
         <v>106.7</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="2">
         <v>56.75</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2919,7 +2924,7 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
@@ -2931,7 +2936,7 @@
       <c r="F8" s="2">
         <v>211</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="2">
         <v>113.1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2949,10 +2954,10 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="2">
         <v>500000</v>
       </c>
       <c r="E9" s="2">
@@ -2961,7 +2966,7 @@
       <c r="F9" s="2">
         <v>210.1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="2">
         <v>121.4</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3012,7 +3017,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
@@ -3024,7 +3029,7 @@
       <c r="F11" s="2">
         <v>55.53</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="2">
         <v>29.72</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3057,7 +3062,7 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
@@ -3069,7 +3074,7 @@
       <c r="F12" s="2">
         <v>36.630000000000003</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="2">
         <v>21.86</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -3105,7 +3110,7 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2">
@@ -3117,7 +3122,7 @@
       <c r="F13" s="2">
         <v>47.78</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="2">
         <v>22.4</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3150,7 +3155,7 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" t="s">
         <v>529</v>
       </c>
       <c r="D14" s="2">
@@ -3162,7 +3167,7 @@
       <c r="F14" s="2">
         <v>22.49</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="2">
         <v>15.26</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -3186,7 +3191,7 @@
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
@@ -3198,7 +3203,7 @@
       <c r="F15" s="2">
         <v>54.08</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="2">
         <v>31.73</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3222,7 +3227,7 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2">
@@ -3234,7 +3239,7 @@
       <c r="F16" s="2">
         <v>18.91</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="2">
         <v>12.75</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3252,7 +3257,7 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2">
@@ -3264,7 +3269,7 @@
       <c r="F17" s="2">
         <v>38.270000000000003</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="2">
         <v>26.3</v>
       </c>
       <c r="N17" t="s">
@@ -3279,7 +3284,7 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" t="s">
         <v>534</v>
       </c>
       <c r="D18" s="2">
@@ -3291,7 +3296,7 @@
       <c r="F18" s="2">
         <v>18.66</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="2">
         <v>12.08</v>
       </c>
       <c r="N18" t="s">
@@ -3309,7 +3314,7 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2">
@@ -3321,7 +3326,7 @@
       <c r="F19" s="2">
         <v>16.11</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="2">
         <v>8.4860000000000007</v>
       </c>
       <c r="N19" t="s">
@@ -3347,7 +3352,7 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="2">
@@ -3359,7 +3364,7 @@
       <c r="F20" s="2">
         <v>66.55</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="2">
         <v>35.92</v>
       </c>
       <c r="N20" t="s">
@@ -3385,7 +3390,7 @@
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2">
@@ -3397,7 +3402,7 @@
       <c r="F21" s="2">
         <v>26.58</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="2">
         <v>11.74</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3425,7 +3430,7 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2">
@@ -3437,7 +3442,7 @@
       <c r="F22" s="2">
         <v>41.27</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="2">
         <v>22.19</v>
       </c>
       <c r="N22" t="s">
@@ -3455,7 +3460,7 @@
       <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" t="s">
         <v>530</v>
       </c>
       <c r="D23" s="2">
@@ -3467,7 +3472,7 @@
       <c r="F23" s="2">
         <v>14.45</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="2">
         <v>6.4640000000000004</v>
       </c>
       <c r="N23" t="s">
@@ -3482,7 +3487,7 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" t="s">
         <v>519</v>
       </c>
       <c r="D24" s="2">
@@ -3494,7 +3499,7 @@
       <c r="F24" s="2">
         <v>12.28</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="2">
         <v>9.984</v>
       </c>
       <c r="N24" t="s">
@@ -3509,7 +3514,7 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" t="s">
         <v>520</v>
       </c>
       <c r="D25" s="2">
@@ -3521,7 +3526,7 @@
       <c r="F25" s="2">
         <v>46.11</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="2">
         <v>24.61</v>
       </c>
       <c r="N25" t="s">
@@ -3536,7 +3541,7 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>679</v>
       </c>
       <c r="D26" s="2">
@@ -3548,7 +3553,7 @@
       <c r="F26" s="2">
         <v>37.07</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="2">
         <v>29.69</v>
       </c>
       <c r="N26" t="s">
@@ -3563,7 +3568,7 @@
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2">
@@ -3575,7 +3580,7 @@
       <c r="F27" s="2">
         <v>67.81</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="2">
         <v>52.79</v>
       </c>
       <c r="N27" t="s">
@@ -3590,7 +3595,7 @@
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" t="s">
         <v>531</v>
       </c>
       <c r="D28" s="8">
@@ -3602,7 +3607,7 @@
       <c r="F28" s="2">
         <v>10.42</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="2">
         <v>7.625</v>
       </c>
       <c r="N28" t="s">
@@ -3617,7 +3622,7 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" t="s">
         <v>521</v>
       </c>
       <c r="D29" s="2">
@@ -3629,7 +3634,7 @@
       <c r="F29" s="2">
         <v>10.27</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="2">
         <v>5.9850000000000003</v>
       </c>
       <c r="N29" t="s">
@@ -3644,7 +3649,7 @@
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2">
@@ -3656,7 +3661,7 @@
       <c r="F30" s="2">
         <v>24.14</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="2">
         <v>19.010000000000002</v>
       </c>
       <c r="N30" t="s">
@@ -3671,7 +3676,7 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" t="s">
         <v>532</v>
       </c>
       <c r="D31" s="2">
@@ -3680,10 +3685,10 @@
       <c r="E31" s="2">
         <v>916.8</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="2">
         <v>32.74</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="2">
         <v>24.51</v>
       </c>
       <c r="N31" t="s">
@@ -3698,7 +3703,7 @@
       <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" t="s">
         <v>522</v>
       </c>
       <c r="D32" s="2">
@@ -3710,7 +3715,7 @@
       <c r="F32" s="2">
         <v>25.57</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="2">
         <v>9.7479999999999993</v>
       </c>
       <c r="N32" t="s">
@@ -3725,7 +3730,7 @@
       <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" t="s">
         <v>523</v>
       </c>
       <c r="D33" s="2">
@@ -3737,7 +3742,7 @@
       <c r="F33" s="2">
         <v>15.38</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="2">
         <v>11.52</v>
       </c>
       <c r="N33" t="s">
@@ -3752,7 +3757,7 @@
       <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2">
@@ -3764,7 +3769,7 @@
       <c r="F34" s="2">
         <v>24.29</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="2">
         <v>16</v>
       </c>
       <c r="N34" t="s">
@@ -3779,7 +3784,7 @@
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" t="s">
         <v>524</v>
       </c>
       <c r="D35" s="2">
@@ -3791,7 +3796,7 @@
       <c r="F35" s="2">
         <v>27.94</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="2">
         <v>19.75</v>
       </c>
       <c r="N35" t="s">
@@ -3806,7 +3811,7 @@
       <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" t="s">
         <v>533</v>
       </c>
       <c r="D36" s="2">
@@ -3818,7 +3823,7 @@
       <c r="F36" s="2">
         <v>19.48</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="2">
         <v>14.08</v>
       </c>
       <c r="N36" t="s">
@@ -3833,8 +3838,11 @@
       <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" t="s">
         <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1000</v>
       </c>
       <c r="E37" s="2">
         <v>509.6</v>
@@ -3842,7 +3850,7 @@
       <c r="F37" s="2">
         <v>18.2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="2">
         <v>13.96</v>
       </c>
       <c r="N37" t="s">
@@ -3857,11 +3865,20 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" t="s">
         <v>541</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>719.1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="G38" s="14">
+        <v>5.1890000000000001</v>
       </c>
       <c r="N38" t="s">
         <v>178</v>
@@ -3875,11 +3892,20 @@
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2">
         <v>1000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1071</v>
+      </c>
+      <c r="F39" s="2">
+        <v>35</v>
+      </c>
+      <c r="G39" s="14">
+        <v>12.88</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3890,11 +3916,20 @@
       <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" t="s">
         <v>525</v>
       </c>
       <c r="D40" s="2">
         <v>290540</v>
+      </c>
+      <c r="E40" s="2">
+        <v>181.2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="G40" s="14">
+        <v>5.6109999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3905,11 +3940,20 @@
       <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>5500</v>
+      </c>
+      <c r="E41" s="2">
+        <v>232.6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="G41" s="14">
+        <v>3.5169999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -3920,11 +3964,20 @@
       <c r="B42" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="2">
         <v>29000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1504</v>
+      </c>
+      <c r="F42" s="2">
+        <v>59.85</v>
+      </c>
+      <c r="G42" s="14">
+        <v>35.47</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3935,11 +3988,20 @@
       <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="2">
         <v>1000000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>499.9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>16.05</v>
+      </c>
+      <c r="G43" s="14">
+        <v>12.63</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3950,7 +4012,7 @@
       <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" t="s">
         <v>526</v>
       </c>
       <c r="D44" s="2">
@@ -3965,7 +4027,7 @@
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2">
@@ -3980,7 +4042,7 @@
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="2">
@@ -3995,7 +4057,7 @@
       <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" t="s">
         <v>528</v>
       </c>
       <c r="D47" s="2">
@@ -4010,7 +4072,7 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" t="s">
         <v>527</v>
       </c>
       <c r="D48" s="2">
@@ -4025,7 +4087,7 @@
       <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
@@ -4040,7 +4102,7 @@
       <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="2">
@@ -4055,7 +4117,7 @@
       <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" t="s">
         <v>535</v>
       </c>
       <c r="D51" s="2">
@@ -4079,7 +4141,7 @@
       <c r="B53" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2">
@@ -4094,7 +4156,7 @@
       <c r="B54" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" t="s">
         <v>677</v>
       </c>
       <c r="D54" s="2">
@@ -4109,7 +4171,7 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" t="s">
         <v>542</v>
       </c>
       <c r="D55" s="2">
@@ -4124,7 +4186,7 @@
       <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" t="s">
         <v>676</v>
       </c>
       <c r="D56" s="2">
@@ -4139,7 +4201,7 @@
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" t="s">
         <v>552</v>
       </c>
       <c r="D57" s="2">
@@ -4154,7 +4216,7 @@
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" t="s">
         <v>553</v>
       </c>
       <c r="D58" s="2">
@@ -4169,7 +4231,7 @@
       <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="2">
@@ -4184,7 +4246,7 @@
       <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" t="s">
         <v>554</v>
       </c>
       <c r="D60" s="2">
@@ -4199,7 +4261,7 @@
       <c r="B61" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" t="s">
         <v>539</v>
       </c>
       <c r="D61" s="2">
@@ -4214,7 +4276,7 @@
       <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" t="s">
         <v>536</v>
       </c>
       <c r="D62" s="2">
@@ -4229,7 +4291,7 @@
       <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" t="s">
         <v>676</v>
       </c>
       <c r="D63" s="2">
@@ -4244,7 +4306,7 @@
       <c r="B64" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="2">
@@ -4259,7 +4321,7 @@
       <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" t="s">
         <v>609</v>
       </c>
       <c r="D65" s="2">
@@ -4274,7 +4336,7 @@
       <c r="B66" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" t="s">
         <v>608</v>
       </c>
       <c r="D66" s="2">
@@ -4289,7 +4351,7 @@
       <c r="B67" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4319,7 +4381,7 @@
       <c r="B70" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" t="s">
         <v>543</v>
       </c>
       <c r="D70" s="2">
@@ -4337,7 +4399,7 @@
       <c r="B71" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" t="s">
         <v>537</v>
       </c>
       <c r="D71" s="2">
@@ -4352,7 +4414,7 @@
       <c r="B72" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2">
@@ -4367,7 +4429,7 @@
       <c r="B73" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="2">
@@ -4382,7 +4444,7 @@
       <c r="B74" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" t="s">
         <v>538</v>
       </c>
       <c r="D74" s="2">
@@ -4397,7 +4459,7 @@
       <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" t="s">
         <v>539</v>
       </c>
       <c r="D75" s="2">
@@ -4412,7 +4474,7 @@
       <c r="B76" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" t="s">
         <v>680</v>
       </c>
       <c r="D76" s="2">
@@ -4427,7 +4489,7 @@
       <c r="B77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" t="s">
         <v>541</v>
       </c>
       <c r="D77" s="2">
@@ -4442,7 +4504,7 @@
       <c r="B78" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" t="s">
         <v>683</v>
       </c>
       <c r="D78" s="2">
@@ -4457,7 +4519,7 @@
       <c r="B79" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" t="s">
         <v>540</v>
       </c>
       <c r="D79" s="2">
@@ -4472,7 +4534,7 @@
       <c r="B80" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" t="s">
         <v>681</v>
       </c>
       <c r="D80" s="2">
@@ -4487,7 +4549,7 @@
       <c r="B81" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" t="s">
         <v>682</v>
       </c>
       <c r="D81" s="2">
@@ -4502,7 +4564,7 @@
       <c r="B82" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" t="s">
         <v>541</v>
       </c>
       <c r="D82" s="2">
@@ -4517,7 +4579,7 @@
       <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="2">
@@ -4532,7 +4594,7 @@
       <c r="B84" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" t="s">
         <v>542</v>
       </c>
       <c r="D84" s="2">
@@ -4547,7 +4609,7 @@
       <c r="B85" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" t="s">
         <v>684</v>
       </c>
       <c r="D85" s="2">
@@ -4562,7 +4624,7 @@
       <c r="B86" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" t="s">
         <v>685</v>
       </c>
       <c r="D86" s="2">
@@ -4577,7 +4639,7 @@
       <c r="B87" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" t="s">
         <v>687</v>
       </c>
       <c r="D87" s="2">
@@ -4595,7 +4657,7 @@
       <c r="B88" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="2">
@@ -4610,7 +4672,7 @@
       <c r="B89" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="2">
@@ -4625,7 +4687,7 @@
       <c r="B90" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" t="s">
         <v>555</v>
       </c>
       <c r="D90" s="2">
@@ -4640,7 +4702,7 @@
       <c r="B91" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="2">
@@ -4655,7 +4717,7 @@
       <c r="B92" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" t="s">
         <v>689</v>
       </c>
       <c r="D92" s="2">
@@ -4670,7 +4732,7 @@
       <c r="B93" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="2">
@@ -4685,7 +4747,7 @@
       <c r="B94" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" t="s">
         <v>556</v>
       </c>
       <c r="D94" s="2">
@@ -4700,7 +4762,7 @@
       <c r="B95" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" t="s">
         <v>557</v>
       </c>
       <c r="D95" s="2">
@@ -4715,7 +4777,7 @@
       <c r="B96" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" s="2">
@@ -4730,7 +4792,7 @@
       <c r="B97" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" t="s">
         <v>690</v>
       </c>
       <c r="D97" s="2">
@@ -4745,7 +4807,7 @@
       <c r="B98" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" t="s">
         <v>534</v>
       </c>
       <c r="D98" s="2">
@@ -4760,7 +4822,7 @@
       <c r="B99" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" t="s">
         <v>691</v>
       </c>
       <c r="D99" s="2">
@@ -4775,7 +4837,7 @@
       <c r="B100" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="2">
@@ -4790,7 +4852,7 @@
       <c r="B101" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" t="s">
         <v>544</v>
       </c>
       <c r="D101" s="2">
@@ -4805,7 +4867,7 @@
       <c r="B102" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="2">
@@ -4820,7 +4882,7 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" t="s">
         <v>692</v>
       </c>
       <c r="D103" s="2">
@@ -4835,7 +4897,7 @@
       <c r="B104" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" t="s">
         <v>693</v>
       </c>
       <c r="D104" s="2">
@@ -4850,7 +4912,7 @@
       <c r="B105" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2">
@@ -4865,7 +4927,7 @@
       <c r="B106" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" t="s">
         <v>545</v>
       </c>
       <c r="D106" s="2">
@@ -4880,7 +4942,7 @@
       <c r="B107" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" s="2">
@@ -4898,7 +4960,7 @@
       <c r="B108" t="s">
         <v>134</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" t="s">
         <v>539</v>
       </c>
       <c r="D108" s="2">
@@ -4913,7 +4975,7 @@
       <c r="B109" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" t="s">
         <v>558</v>
       </c>
       <c r="D109" s="2">
@@ -4928,7 +4990,7 @@
       <c r="B110" t="s">
         <v>136</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" t="s">
         <v>541</v>
       </c>
       <c r="D110" s="2">
@@ -4943,7 +5005,7 @@
       <c r="B111" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" t="s">
         <v>559</v>
       </c>
       <c r="D111" s="2">
@@ -4958,7 +5020,7 @@
       <c r="B112" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="13" t="s">
         <v>694</v>
       </c>
       <c r="D112" s="2">
@@ -4973,7 +5035,7 @@
       <c r="B113" t="s">
         <v>139</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2">
@@ -4988,7 +5050,7 @@
       <c r="B114" t="s">
         <v>141</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" t="s">
         <v>546</v>
       </c>
       <c r="D114" s="2">
@@ -5003,7 +5065,7 @@
       <c r="B115" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" t="s">
         <v>547</v>
       </c>
       <c r="D115" s="2">
@@ -5018,7 +5080,7 @@
       <c r="B116" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C116" t="s">
         <v>539</v>
       </c>
       <c r="D116" s="2">
@@ -5033,7 +5095,7 @@
       <c r="B117" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2">
@@ -5048,7 +5110,7 @@
       <c r="B118" t="s">
         <v>145</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" t="s">
         <v>676</v>
       </c>
       <c r="D118" s="2">
@@ -5063,7 +5125,7 @@
       <c r="B119" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2">
@@ -5078,7 +5140,7 @@
       <c r="B120" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" t="s">
         <v>695</v>
       </c>
       <c r="D120" s="2">
@@ -5093,7 +5155,7 @@
       <c r="B121" t="s">
         <v>148</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" t="s">
         <v>698</v>
       </c>
       <c r="D121" s="2">
@@ -5108,7 +5170,7 @@
       <c r="B122" t="s">
         <v>149</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" t="s">
         <v>683</v>
       </c>
       <c r="D122" s="2">
@@ -5132,7 +5194,7 @@
       <c r="B124" t="s">
         <v>151</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="C124" t="s">
         <v>697</v>
       </c>
       <c r="D124" s="2">
@@ -5147,7 +5209,7 @@
       <c r="B125" t="s">
         <v>152</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" t="s">
         <v>564</v>
       </c>
       <c r="D125" s="2">
@@ -5162,7 +5224,7 @@
       <c r="B126" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" t="s">
         <v>696</v>
       </c>
       <c r="D126" s="2">
@@ -5177,7 +5239,7 @@
       <c r="B127" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="2">
@@ -5192,7 +5254,7 @@
       <c r="B128" t="s">
         <v>155</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" t="s">
         <v>560</v>
       </c>
       <c r="D128" s="2">
@@ -5207,7 +5269,7 @@
       <c r="B129" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" t="s">
         <v>535</v>
       </c>
       <c r="D129" s="2">
@@ -5222,7 +5284,7 @@
       <c r="B130" t="s">
         <v>158</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" t="s">
         <v>561</v>
       </c>
       <c r="D130" s="2">
@@ -5237,7 +5299,7 @@
       <c r="B131" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="2">
@@ -5261,7 +5323,7 @@
       <c r="B133" t="s">
         <v>161</v>
       </c>
-      <c r="C133" s="14" t="s">
+      <c r="C133" t="s">
         <v>548</v>
       </c>
       <c r="D133" s="2">
@@ -5276,7 +5338,7 @@
       <c r="B134" t="s">
         <v>162</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" t="s">
         <v>549</v>
       </c>
       <c r="D134" s="2">
@@ -5291,7 +5353,7 @@
       <c r="B135" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2">
@@ -5306,7 +5368,7 @@
       <c r="B136" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C136" s="14" t="s">
+      <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="2">
@@ -5324,7 +5386,7 @@
       <c r="B137" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C137" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2">
@@ -5348,7 +5410,7 @@
       <c r="B139" t="s">
         <v>168</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="C139" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5360,7 +5422,7 @@
       <c r="B140" t="s">
         <v>169</v>
       </c>
-      <c r="C140" s="14" t="s">
+      <c r="C140" t="s">
         <v>698</v>
       </c>
       <c r="D140" s="2">
@@ -5393,7 +5455,7 @@
       <c r="B143" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="14" t="s">
+      <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="2">
@@ -5417,7 +5479,7 @@
       <c r="B145" t="s">
         <v>174</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" s="2">
@@ -5459,7 +5521,7 @@
       <c r="B149" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" t="s">
         <v>697</v>
       </c>
       <c r="D149" s="2">
@@ -5474,7 +5536,7 @@
       <c r="B150" t="s">
         <v>180</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="2">
@@ -5489,7 +5551,7 @@
       <c r="B151" t="s">
         <v>181</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" t="s">
         <v>697</v>
       </c>
       <c r="D151" s="2">
@@ -5522,7 +5584,7 @@
       <c r="B154" t="s">
         <v>184</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" t="s">
         <v>695</v>
       </c>
       <c r="D154" s="2">
@@ -5555,7 +5617,7 @@
       <c r="B157" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" t="s">
         <v>722</v>
       </c>
       <c r="D157" s="2">
@@ -5579,7 +5641,7 @@
       <c r="B159" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" t="s">
         <v>550</v>
       </c>
       <c r="D159" s="2">
@@ -5594,7 +5656,7 @@
       <c r="B160" t="s">
         <v>190</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C160" s="13" t="s">
         <v>699</v>
       </c>
       <c r="D160" s="2">
@@ -5609,7 +5671,7 @@
       <c r="B161" t="s">
         <v>191</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C161" t="s">
         <v>700</v>
       </c>
       <c r="D161" s="2">
@@ -5633,7 +5695,7 @@
       <c r="B163" t="s">
         <v>194</v>
       </c>
-      <c r="C163" s="14" t="s">
+      <c r="C163" t="s">
         <v>701</v>
       </c>
       <c r="D163" s="2">
@@ -5648,7 +5710,7 @@
       <c r="B164" t="s">
         <v>195</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C164" t="s">
         <v>702</v>
       </c>
       <c r="D164" s="2">
@@ -5663,7 +5725,7 @@
       <c r="B165" t="s">
         <v>197</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="2">
@@ -5678,7 +5740,7 @@
       <c r="B166" t="s">
         <v>198</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="C166" t="s">
         <v>695</v>
       </c>
       <c r="D166" s="2">
@@ -5693,7 +5755,7 @@
       <c r="B167" t="s">
         <v>199</v>
       </c>
-      <c r="C167" s="14" t="s">
+      <c r="C167" t="s">
         <v>551</v>
       </c>
       <c r="D167" s="2">
@@ -5717,7 +5779,7 @@
       <c r="B169" t="s">
         <v>201</v>
       </c>
-      <c r="C169" s="14" t="s">
+      <c r="C169" t="s">
         <v>703</v>
       </c>
       <c r="D169" s="2">
@@ -5732,7 +5794,7 @@
       <c r="B170" t="s">
         <v>202</v>
       </c>
-      <c r="C170" s="14" t="s">
+      <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="2">
@@ -5747,7 +5809,7 @@
       <c r="B171" t="s">
         <v>203</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C171" t="s">
         <v>676</v>
       </c>
       <c r="D171" s="2">
@@ -5771,7 +5833,7 @@
       <c r="B173" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" t="s">
         <v>698</v>
       </c>
       <c r="D173" s="2">
@@ -5786,7 +5848,7 @@
       <c r="B174" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" t="s">
         <v>704</v>
       </c>
       <c r="D174" s="2">
@@ -5837,7 +5899,7 @@
       <c r="B179" t="s">
         <v>211</v>
       </c>
-      <c r="C179" s="14" t="s">
+      <c r="C179" t="s">
         <v>705</v>
       </c>
       <c r="D179" s="2">
@@ -5852,7 +5914,7 @@
       <c r="B180" t="s">
         <v>212</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C180" t="s">
         <v>706</v>
       </c>
       <c r="D180" s="2">
@@ -5867,7 +5929,7 @@
       <c r="B181" t="s">
         <v>213</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" t="s">
         <v>562</v>
       </c>
       <c r="D181" s="2">
@@ -5882,7 +5944,7 @@
       <c r="B182" t="s">
         <v>214</v>
       </c>
-      <c r="C182" s="14" t="s">
+      <c r="C182" t="s">
         <v>708</v>
       </c>
       <c r="D182" s="2">
@@ -5897,7 +5959,7 @@
       <c r="B183" t="s">
         <v>215</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C183" t="s">
         <v>707</v>
       </c>
       <c r="D183" s="2">
@@ -5921,7 +5983,7 @@
       <c r="B185" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" s="2">
@@ -6029,7 +6091,7 @@
       <c r="B196" t="s">
         <v>228</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" t="s">
         <v>676</v>
       </c>
     </row>
@@ -6086,7 +6148,7 @@
       <c r="B202" t="s">
         <v>234</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C202" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6125,7 +6187,7 @@
       <c r="B206" t="s">
         <v>238</v>
       </c>
-      <c r="C206" s="14" t="s">
+      <c r="C206" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6218,7 +6280,7 @@
       <c r="B216" t="s">
         <v>248</v>
       </c>
-      <c r="C216" s="14" t="s">
+      <c r="C216" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6257,7 +6319,7 @@
       <c r="B220" t="s">
         <v>252</v>
       </c>
-      <c r="C220" s="14" t="s">
+      <c r="C220" t="s">
         <v>709</v>
       </c>
       <c r="D220" s="2">
@@ -6281,7 +6343,7 @@
       <c r="B222" t="s">
         <v>254</v>
       </c>
-      <c r="C222" s="14" t="s">
+      <c r="C222" t="s">
         <v>710</v>
       </c>
       <c r="D222" s="2">
@@ -6422,7 +6484,7 @@
       <c r="B237" t="s">
         <v>272</v>
       </c>
-      <c r="C237" s="14" t="s">
+      <c r="C237" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6461,7 +6523,7 @@
       <c r="B241" t="s">
         <v>276</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="C241" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6554,7 +6616,7 @@
       <c r="B251" t="s">
         <v>288</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="C251" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6575,7 +6637,7 @@
       <c r="B253" t="s">
         <v>290</v>
       </c>
-      <c r="C253" s="14" t="s">
+      <c r="C253" t="s">
         <v>711</v>
       </c>
       <c r="D253" s="2">
@@ -6653,7 +6715,7 @@
       <c r="B261" t="s">
         <v>298</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" s="2">
@@ -6704,7 +6766,7 @@
       <c r="B266" t="s">
         <v>303</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="C266" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6815,7 +6877,7 @@
       <c r="B278" t="s">
         <v>316</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C278" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6872,7 +6934,7 @@
       <c r="B284" t="s">
         <v>323</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C284" t="s">
         <v>6</v>
       </c>
       <c r="D284" s="2">
@@ -6887,7 +6949,7 @@
       <c r="B285" t="s">
         <v>324</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" t="s">
         <v>546</v>
       </c>
     </row>
@@ -6944,7 +7006,7 @@
       <c r="B291" t="s">
         <v>330</v>
       </c>
-      <c r="C291" s="14" t="s">
+      <c r="C291" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6983,7 +7045,7 @@
       <c r="B295" t="s">
         <v>334</v>
       </c>
-      <c r="C295" s="14" t="s">
+      <c r="C295" t="s">
         <v>683</v>
       </c>
       <c r="D295" s="2">
@@ -6998,7 +7060,7 @@
       <c r="B296" t="s">
         <v>335</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" t="s">
         <v>712</v>
       </c>
       <c r="D296" s="2">
@@ -7013,7 +7075,7 @@
       <c r="B297" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C297" s="14" t="s">
+      <c r="C297" t="s">
         <v>6</v>
       </c>
       <c r="D297" s="2">
@@ -7028,7 +7090,7 @@
       <c r="B298" t="s">
         <v>337</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="C298" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7049,7 +7111,7 @@
       <c r="B300" t="s">
         <v>339</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C300" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7097,7 +7159,7 @@
       <c r="B305" t="s">
         <v>344</v>
       </c>
-      <c r="C305" s="14" t="s">
+      <c r="C305" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7109,7 +7171,7 @@
       <c r="B306" t="s">
         <v>345</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="C306" t="s">
         <v>713</v>
       </c>
       <c r="D306" s="2">
@@ -7145,7 +7207,7 @@
       <c r="B309" t="s">
         <v>349</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="C309" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7195,7 +7257,7 @@
       <c r="B314" t="s">
         <v>353</v>
       </c>
-      <c r="C314" s="14" t="s">
+      <c r="C314" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7315,7 +7377,7 @@
       <c r="B327" t="s">
         <v>366</v>
       </c>
-      <c r="C327" s="14" t="s">
+      <c r="C327" t="s">
         <v>714</v>
       </c>
       <c r="D327" s="2">
@@ -7330,7 +7392,7 @@
       <c r="B328" t="s">
         <v>367</v>
       </c>
-      <c r="C328" s="14" t="s">
+      <c r="C328" t="s">
         <v>582</v>
       </c>
     </row>
@@ -7360,7 +7422,7 @@
       <c r="B331" t="s">
         <v>370</v>
       </c>
-      <c r="C331" s="14" t="s">
+      <c r="C331" t="s">
         <v>541</v>
       </c>
       <c r="D331" s="2">
@@ -7465,7 +7527,7 @@
       <c r="B342" t="s">
         <v>383</v>
       </c>
-      <c r="C342" s="14" t="s">
+      <c r="C342" t="s">
         <v>715</v>
       </c>
       <c r="D342" s="2">
@@ -7534,7 +7596,7 @@
       <c r="B349" t="s">
         <v>391</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="C349" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7636,7 +7698,7 @@
       <c r="B360" t="s">
         <v>402</v>
       </c>
-      <c r="C360" s="14" t="s">
+      <c r="C360" t="s">
         <v>716</v>
       </c>
       <c r="D360" s="2">
@@ -7678,7 +7740,7 @@
       <c r="B364" t="s">
         <v>407</v>
       </c>
-      <c r="C364" s="14" t="s">
+      <c r="C364" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7753,7 +7815,7 @@
       <c r="B372" t="s">
         <v>415</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" t="s">
         <v>717</v>
       </c>
       <c r="D372" s="2">
@@ -7957,7 +8019,7 @@
       <c r="B394" t="s">
         <v>437</v>
       </c>
-      <c r="C394" s="14" t="s">
+      <c r="C394" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7978,7 +8040,7 @@
       <c r="B396" t="s">
         <v>439</v>
       </c>
-      <c r="C396" s="14" t="s">
+      <c r="C396" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8026,7 +8088,7 @@
       <c r="B401" t="s">
         <v>444</v>
       </c>
-      <c r="C401" s="14" t="s">
+      <c r="C401" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8065,7 +8127,7 @@
       <c r="B405" t="s">
         <v>448</v>
       </c>
-      <c r="C405" s="14" t="s">
+      <c r="C405" t="s">
         <v>541</v>
       </c>
     </row>
@@ -8077,7 +8139,7 @@
       <c r="B406" t="s">
         <v>449</v>
       </c>
-      <c r="C406" s="14" t="s">
+      <c r="C406" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8107,7 +8169,7 @@
       <c r="B409" t="s">
         <v>452</v>
       </c>
-      <c r="C409" s="14" t="s">
+      <c r="C409" t="s">
         <v>580</v>
       </c>
     </row>
@@ -8182,7 +8244,7 @@
       <c r="B417" t="s">
         <v>461</v>
       </c>
-      <c r="C417" s="14" t="s">
+      <c r="C417" t="s">
         <v>550</v>
       </c>
     </row>
@@ -8248,7 +8310,7 @@
       <c r="B424" t="s">
         <v>600</v>
       </c>
-      <c r="C424" s="14" t="s">
+      <c r="C424" t="s">
         <v>601</v>
       </c>
       <c r="E424" s="2">
@@ -8290,7 +8352,7 @@
       <c r="B428" t="s">
         <v>474</v>
       </c>
-      <c r="C428" s="14" t="s">
+      <c r="C428" t="s">
         <v>710</v>
       </c>
     </row>
@@ -8302,7 +8364,7 @@
       <c r="B429" t="s">
         <v>475</v>
       </c>
-      <c r="C429" s="14" t="s">
+      <c r="C429" t="s">
         <v>2</v>
       </c>
       <c r="D429" s="2">
@@ -8326,7 +8388,7 @@
       <c r="B431" t="s">
         <v>477</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8437,7 +8499,7 @@
       <c r="B443" t="s">
         <v>491</v>
       </c>
-      <c r="C443" s="14" t="s">
+      <c r="C443" t="s">
         <v>6</v>
       </c>
       <c r="D443" s="2">
@@ -8479,7 +8541,7 @@
       <c r="B447" t="s">
         <v>495</v>
       </c>
-      <c r="C447" s="14" t="s">
+      <c r="C447" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8572,7 +8634,7 @@
       <c r="B457" t="s">
         <v>507</v>
       </c>
-      <c r="C457" s="14" t="s">
+      <c r="C457" t="s">
         <v>6</v>
       </c>
       <c r="D457" s="2">
@@ -8632,7 +8694,7 @@
       <c r="B463" t="s">
         <v>513</v>
       </c>
-      <c r="C463" s="14" t="s">
+      <c r="C463" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8673,7 +8735,7 @@
       <c r="B467" t="s">
         <v>516</v>
       </c>
-      <c r="C467" s="14" t="s">
+      <c r="C467" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8702,7 +8764,7 @@
       <c r="B470" t="s">
         <v>623</v>
       </c>
-      <c r="C470" s="14" t="s">
+      <c r="C470" t="s">
         <v>622</v>
       </c>
       <c r="E470" s="2">
@@ -8716,7 +8778,7 @@
       <c r="B471" t="s">
         <v>588</v>
       </c>
-      <c r="C471" s="14" t="s">
+      <c r="C471" t="s">
         <v>625</v>
       </c>
       <c r="E471" s="2">
@@ -8730,7 +8792,7 @@
       <c r="B472" t="s">
         <v>602</v>
       </c>
-      <c r="C472" s="14" t="s">
+      <c r="C472" t="s">
         <v>624</v>
       </c>
       <c r="E472" s="2">
@@ -8766,7 +8828,7 @@
       <c r="B475" t="s">
         <v>719</v>
       </c>
-      <c r="C475" s="14" t="s">
+      <c r="C475" t="s">
         <v>720</v>
       </c>
       <c r="D475" s="2">
@@ -8860,7 +8922,7 @@
       <c r="B483" t="s">
         <v>585</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C483" t="s">
         <v>6</v>
       </c>
       <c r="E483" s="2">
@@ -8885,7 +8947,7 @@
       <c r="B485" t="s">
         <v>621</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C485" t="s">
         <v>622</v>
       </c>
       <c r="E485" s="2">
@@ -8899,7 +8961,7 @@
       <c r="B486" t="s">
         <v>572</v>
       </c>
-      <c r="C486" s="14" t="s">
+      <c r="C486" t="s">
         <v>6</v>
       </c>
       <c r="D486" s="2">
@@ -9111,7 +9173,7 @@
       <c r="B505" t="s">
         <v>673</v>
       </c>
-      <c r="C505" s="14" t="s">
+      <c r="C505" t="s">
         <v>5</v>
       </c>
       <c r="E505" s="2">
@@ -9166,7 +9228,7 @@
       <c r="B510" t="s">
         <v>590</v>
       </c>
-      <c r="C510" s="14" t="s">
+      <c r="C510" t="s">
         <v>6</v>
       </c>
       <c r="E510" s="2">
@@ -9279,7 +9341,7 @@
       <c r="B520" t="s">
         <v>620</v>
       </c>
-      <c r="C520" s="14" t="s">
+      <c r="C520" t="s">
         <v>622</v>
       </c>
       <c r="E520" s="2">
@@ -9389,7 +9451,7 @@
       <c r="B530" t="s">
         <v>573</v>
       </c>
-      <c r="C530" s="14" t="s">
+      <c r="C530" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9640,7 +9702,7 @@
       <c r="B553" t="s">
         <v>635</v>
       </c>
-      <c r="C553" s="14"/>
+      <c r="C553"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2">
         <v>3.1070000000000002</v>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93652D40-0712-4CF0-9363-96CB8C78968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E72E6-7619-FA44-9890-2AAC8618E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45990" yWindow="60" windowWidth="28410" windowHeight="20415" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-43200" yWindow="-780" windowWidth="21600" windowHeight="20420" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="772">
   <si>
     <t>GOOG</t>
   </si>
@@ -2264,9 +2264,6 @@
     <t>Daily Visits</t>
   </si>
   <si>
-    <t>Unique Visitors</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -2289,12 +2286,101 @@
   </si>
   <si>
     <t>MC</t>
+  </si>
+  <si>
+    <t>Unique Vs</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Last 28 days TVs</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>27:20</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>3:29</t>
+  </si>
+  <si>
+    <t>1:27</t>
+  </si>
+  <si>
+    <t>1:50</t>
+  </si>
+  <si>
+    <t>1:00</t>
+  </si>
+  <si>
+    <t>pubmed.ncbi.nlm.nih.gov</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>1:09</t>
+  </si>
+  <si>
+    <t>5:11</t>
+  </si>
+  <si>
+    <t>3:45</t>
+  </si>
+  <si>
+    <t>5:08</t>
+  </si>
+  <si>
+    <t>facty.com</t>
+  </si>
+  <si>
+    <t>10faq.com</t>
+  </si>
+  <si>
+    <t>gq.com</t>
+  </si>
+  <si>
+    <t>mensjournal.com</t>
+  </si>
+  <si>
+    <t>ycombinator.com</t>
+  </si>
+  <si>
+    <t>logitech.com</t>
+  </si>
+  <si>
+    <t>asus.com</t>
+  </si>
+  <si>
+    <t>tradingeconomics.com</t>
+  </si>
+  <si>
+    <t>macrotrends.net</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>JWN</t>
+  </si>
+  <si>
+    <t>CSGP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2345,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2376,8 +2462,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2709,62 +2831,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA33316-214D-4B4A-B004-8F085269D09A}">
-  <dimension ref="A1:V577"/>
+  <dimension ref="A1:W587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E1" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>736</v>
+      <c r="G2" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>744</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -2772,8 +2899,17 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K2" s="26">
+        <v>45089</v>
+      </c>
+      <c r="L2" s="18">
+        <v>45088</v>
+      </c>
+      <c r="M2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2789,10 +2925,10 @@
       <c r="E3" s="2">
         <v>71600</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="15">
         <v>2818</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="15">
         <v>1257</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2802,7 +2938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2819,10 +2955,10 @@
       <c r="E4" s="2">
         <v>30210</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="15">
         <v>1079</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="15">
         <v>423.1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2831,11 +2967,11 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A59" si="0">A4+1</f>
         <v>3</v>
@@ -2852,10 +2988,10 @@
       <c r="E5" s="2">
         <v>15740</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="15">
         <v>562.1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="15">
         <v>277.60000000000002</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2865,7 +3001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2882,14 +3018,14 @@
       <c r="E6" s="2">
         <v>2096</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="15">
         <v>74.86</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="15">
         <v>50.16</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2906,17 +3042,17 @@
       <c r="E7" s="4">
         <v>2989</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="16">
         <v>106.7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="15">
         <v>56.75</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2933,10 +3069,10 @@
       <c r="E8" s="2">
         <v>5910</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="15">
         <v>211</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="15">
         <v>113.1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2946,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2963,17 +3099,17 @@
       <c r="E9" s="2">
         <v>5884</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="15">
         <v>210.1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="15">
         <v>121.4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2990,10 +3126,10 @@
       <c r="E10" s="6">
         <v>4214</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="17">
         <v>150.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="17">
         <v>110.2</v>
       </c>
       <c r="H10" s="6">
@@ -3005,11 +3141,12 @@
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="K10" s="7"/>
+      <c r="T10" s="10" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3026,35 +3163,35 @@
       <c r="E11" s="2">
         <v>1555</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="15">
         <v>55.53</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="15">
         <v>29.72</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>1000</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>1600</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>196</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3071,10 +3208,10 @@
       <c r="E12" s="2">
         <v>1025</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="15">
         <v>36.630000000000003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="15">
         <v>21.86</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -3083,26 +3220,26 @@
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>1000</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>2800</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>346</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3119,10 +3256,10 @@
       <c r="E13" s="2">
         <v>1338</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="15">
         <v>47.78</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="15">
         <v>22.4</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3131,23 +3268,23 @@
       <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>33</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>1000</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>404</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>A13+1</f>
         <v>12</v>
@@ -3164,26 +3301,26 @@
       <c r="E14" s="2">
         <v>629.79999999999995</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="15">
         <v>22.49</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="15">
         <v>15.26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -3200,26 +3337,26 @@
       <c r="E15" s="2">
         <v>1514</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="15">
         <v>54.08</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="15">
         <v>31.73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>62</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3236,20 +3373,20 @@
       <c r="E16" s="2">
         <v>529.6</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="15">
         <v>18.91</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="15">
         <v>12.75</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3266,17 +3403,17 @@
       <c r="E17" s="2">
         <v>1071</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="15">
         <v>38.270000000000003</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="15">
         <v>26.3</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3293,20 +3430,20 @@
       <c r="E18" s="2">
         <v>522.70000000000005</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="15">
         <v>18.66</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="15">
         <v>12.08</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>140</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3323,28 +3460,28 @@
       <c r="E19" s="2">
         <v>451.3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="15">
         <v>16.11</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="15">
         <v>8.4860000000000007</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>165</v>
       </c>
-      <c r="S19" s="11">
+      <c r="T19" s="11">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="U19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V19" s="12"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3361,28 +3498,28 @@
       <c r="E20" s="2">
         <v>1863</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="15">
         <v>66.55</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="15">
         <v>35.92</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>313</v>
       </c>
-      <c r="S20" s="11">
+      <c r="T20" s="11">
         <f>A39+1</f>
         <v>39</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>61</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3399,30 +3536,30 @@
       <c r="E21" s="2">
         <v>744.4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="15">
         <v>26.58</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="15">
         <v>11.74</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>282</v>
       </c>
-      <c r="S21" s="11">
+      <c r="T21" s="11">
         <f>A66+1</f>
         <v>67</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>92</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3439,20 +3576,20 @@
       <c r="E22" s="2">
         <v>1155</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="15">
         <v>41.27</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="15">
         <v>22.19</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>283</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3469,17 +3606,17 @@
       <c r="E23" s="2">
         <v>404.8</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="15">
         <v>14.45</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="15">
         <v>6.4640000000000004</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3496,17 +3633,17 @@
       <c r="E24" s="2">
         <v>343.9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="15">
         <v>12.28</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="15">
         <v>9.984</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3523,17 +3660,17 @@
       <c r="E25" s="2">
         <v>1291</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="15">
         <v>46.11</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="15">
         <v>24.61</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3550,17 +3687,17 @@
       <c r="E26" s="2">
         <v>1037</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="15">
         <v>37.07</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="15">
         <v>29.69</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3577,17 +3714,17 @@
       <c r="E27" s="2">
         <v>1898</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="15">
         <v>67.81</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="15">
         <v>52.79</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3604,17 +3741,17 @@
       <c r="E28" s="2">
         <v>291.8</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="15">
         <v>10.42</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="15">
         <v>7.625</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3631,17 +3768,17 @@
       <c r="E29" s="2">
         <v>287.7</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="15">
         <v>10.27</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="15">
         <v>5.9850000000000003</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3658,17 +3795,17 @@
       <c r="E30" s="2">
         <v>675.9</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="15">
         <v>24.14</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="15">
         <v>19.010000000000002</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3685,19 +3822,19 @@
       <c r="E31" s="2">
         <v>916.8</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="15">
         <v>32.74</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="15">
         <v>24.51</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f>S19+1</f>
+        <f>T19+1</f>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3712,17 +3849,17 @@
       <c r="E32" s="2">
         <v>716.2</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="15">
         <v>25.57</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="15">
         <v>9.7479999999999993</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3739,17 +3876,17 @@
       <c r="E33" s="2">
         <v>430.7</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="15">
         <v>15.38</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="15">
         <v>11.52</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3766,17 +3903,17 @@
       <c r="E34" s="2">
         <v>680.1</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="15">
         <v>24.29</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="15">
         <v>16</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3793,17 +3930,17 @@
       <c r="E35" s="2">
         <v>782.5</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="15">
         <v>27.94</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="15">
         <v>19.75</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3820,17 +3957,17 @@
       <c r="E36" s="2">
         <v>545.5</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="15">
         <v>19.48</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="15">
         <v>14.08</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3847,17 +3984,17 @@
       <c r="E37" s="2">
         <v>509.6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="15">
         <v>18.2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="15">
         <v>13.96</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3874,17 +4011,17 @@
       <c r="E38" s="2">
         <v>719.1</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="15">
         <v>7.86</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="15">
         <v>5.1890000000000001</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3901,16 +4038,16 @@
       <c r="E39" s="2">
         <v>1071</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="15">
         <v>35</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="15">
         <v>12.88</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f>S20+1</f>
+        <f>T20+1</f>
         <v>40</v>
       </c>
       <c r="B40" t="s">
@@ -3925,14 +4062,14 @@
       <c r="E40" s="2">
         <v>181.2</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="15">
         <v>7.25</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="15">
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3949,14 +4086,14 @@
       <c r="E41" s="2">
         <v>232.6</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="15">
         <v>7.92</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="15">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3973,14 +4110,14 @@
       <c r="E42" s="2">
         <v>1504</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="15">
         <v>59.85</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="15">
         <v>35.47</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3997,14 +4134,14 @@
       <c r="E43" s="2">
         <v>499.9</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="15">
         <v>16.05</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="15">
         <v>12.63</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4019,7 +4156,7 @@
         <v>171400</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4034,7 +4171,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4049,7 +4186,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4064,7 +4201,7 @@
         <v>392730</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4079,7 +4216,7 @@
         <v>70570</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4094,7 +4231,7 @@
         <v>167830</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4109,7 +4246,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4124,7 +4261,7 @@
         <v>119540</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4133,7 +4270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4148,7 +4285,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4163,7 +4300,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4178,7 +4315,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4193,7 +4330,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4208,7 +4345,7 @@
         <v>73170</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4223,7 +4360,7 @@
         <v>145640</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4238,7 +4375,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" ref="A60:A121" si="1">A59+1</f>
         <v>60</v>
@@ -4253,7 +4390,7 @@
         <v>27530</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4268,7 +4405,7 @@
         <v>167900</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4283,7 +4420,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4298,7 +4435,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4313,7 +4450,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4328,7 +4465,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4343,9 +4480,9 @@
         <v>121240</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f>S21+1</f>
+        <f>T21+1</f>
         <v>68</v>
       </c>
       <c r="B67" t="s">
@@ -4355,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4364,7 +4501,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4373,7 +4510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4387,11 +4524,11 @@
       <c r="D70" s="2">
         <v>56030</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4406,7 +4543,7 @@
         <v>140670</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4421,7 +4558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4436,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4451,7 +4588,7 @@
         <v>32970</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4466,7 +4603,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4481,7 +4618,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4495,8 +4632,20 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E77" s="2">
+        <v>246.9</v>
+      </c>
+      <c r="F77" s="15">
+        <v>7.6470000000000002</v>
+      </c>
+      <c r="G77" s="16">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="H77" s="2">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4511,7 +4660,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4526,7 +4675,7 @@
         <v>215690</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4541,7 +4690,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4556,7 +4705,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4571,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4586,7 +4735,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4601,7 +4750,7 @@
         <v>121750</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4616,7 +4765,7 @@
         <v>17970</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4631,7 +4780,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4645,11 +4794,26 @@
       <c r="D87" s="2">
         <v>100</v>
       </c>
-      <c r="K87" t="s">
+      <c r="E87" s="2">
+        <v>204.4</v>
+      </c>
+      <c r="F87" s="15">
+        <v>6.41</v>
+      </c>
+      <c r="G87" s="16">
+        <v>5.6589999999999998</v>
+      </c>
+      <c r="H87" s="2">
+        <v>117.3</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L87" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4664,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4679,7 +4843,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4694,7 +4858,7 @@
         <v>12330</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4709,7 +4873,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4724,7 +4888,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4739,7 +4903,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4754,7 +4918,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4769,7 +4933,7 @@
         <v>15680</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4784,7 +4948,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4799,7 +4963,7 @@
         <v>84130</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4814,7 +4978,7 @@
         <v>30480</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4829,7 +4993,7 @@
         <v>191320</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4844,7 +5008,7 @@
         <v>85900</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4859,7 +5023,7 @@
         <v>223550</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4874,7 +5038,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4889,7 +5053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4904,7 +5068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4919,7 +5083,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4934,7 +5098,7 @@
         <v>66340</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4949,10 +5113,22 @@
         <v>300</v>
       </c>
       <c r="E107" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117.3</v>
+      </c>
+      <c r="F107" s="15">
+        <v>3.98</v>
+      </c>
+      <c r="G107" s="16">
+        <v>3.5779999999999998</v>
+      </c>
+      <c r="H107" s="2">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="M107" s="19">
+        <v>5.347222222222222E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4967,7 +5143,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4982,7 +5158,7 @@
         <v>87920</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4997,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5012,7 +5188,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5027,7 +5203,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5042,7 +5218,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5057,7 +5233,7 @@
         <v>97170</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5072,7 +5248,7 @@
         <v>153870</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5087,7 +5263,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5102,7 +5278,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5116,8 +5292,23 @@
       <c r="D118" s="2">
         <v>10490</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="2">
+        <v>88.58</v>
+      </c>
+      <c r="F118" s="15">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="G118" s="16">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="H118" s="2">
+        <v>32.67</v>
+      </c>
+      <c r="M118" s="19">
+        <v>0.11041666666666666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5132,7 +5323,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5147,7 +5338,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5162,7 +5353,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" ref="A122:A186" si="2">A121+1</f>
         <v>123</v>
@@ -5177,7 +5368,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -5185,8 +5376,26 @@
       <c r="B123" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="F123" s="15">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G123" s="16">
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="H123" s="2">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -5201,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -5216,7 +5425,7 @@
         <v>197580</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -5231,7 +5440,7 @@
         <v>87890</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -5246,7 +5455,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -5261,7 +5470,7 @@
         <v>25590</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -5276,7 +5485,7 @@
         <v>119970</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5291,7 +5500,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5306,7 +5515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5315,7 +5524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5330,7 +5539,7 @@
         <v>109950</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5345,7 +5554,7 @@
         <v>184760</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5360,7 +5569,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5375,10 +5584,22 @@
         <v>3000</v>
       </c>
       <c r="E136" s="2">
-        <v>88.1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101.6</v>
+      </c>
+      <c r="F136" s="15">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="G136" s="16">
+        <v>2.859</v>
+      </c>
+      <c r="H136" s="2">
+        <v>66.12</v>
+      </c>
+      <c r="M136" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5393,7 +5614,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5402,7 +5623,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5414,7 +5635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5429,7 +5650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5437,8 +5658,23 @@
       <c r="B141" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E141" s="2">
+        <v>96.86</v>
+      </c>
+      <c r="F141" s="15">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="G141" s="16">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="H141" s="2">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="M141" s="19">
+        <v>0.12569444444444444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5447,7 +5683,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5461,8 +5697,23 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="2">
+        <v>85.97</v>
+      </c>
+      <c r="F143" s="15">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="G143" s="16">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="H143" s="2">
+        <v>26.54</v>
+      </c>
+      <c r="M143" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5471,7 +5722,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5486,7 +5737,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5495,7 +5746,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5503,8 +5754,23 @@
       <c r="B147" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="2">
+        <v>63.58</v>
+      </c>
+      <c r="F147" s="15">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="G147" s="16">
+        <v>1.552</v>
+      </c>
+      <c r="H147" s="2">
+        <v>39.81</v>
+      </c>
+      <c r="M147" s="19">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5513,7 +5779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5528,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5543,7 +5809,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5558,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5567,7 +5833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5576,7 +5842,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5590,8 +5856,29 @@
       <c r="D154" s="2">
         <v>9880</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="2">
+        <v>63.23</v>
+      </c>
+      <c r="F154" s="15">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="G154" s="16">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="H154" s="2">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" s="21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5600,7 +5887,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5609,7 +5896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5624,7 +5911,7 @@
         <v>10590</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5633,7 +5920,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5648,7 +5935,7 @@
         <v>88480</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5663,7 +5950,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5678,7 +5965,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5687,7 +5974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5702,7 +5989,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5717,7 +6004,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5731,8 +6018,24 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="2">
+        <v>44.14</v>
+      </c>
+      <c r="F165" s="15">
+        <v>0.82471099999999997</v>
+      </c>
+      <c r="G165" s="16">
+        <v>0.57424699999999995</v>
+      </c>
+      <c r="H165" s="2">
+        <v>12.55</v>
+      </c>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5747,7 +6050,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5762,7 +6065,7 @@
         <v>158030</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5771,7 +6074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5786,7 +6089,7 @@
         <v>26810</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5801,7 +6104,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5816,7 +6119,7 @@
         <v>10830</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5824,8 +6127,29 @@
       <c r="B172" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="2">
+        <v>100</v>
+      </c>
+      <c r="E172" s="2">
+        <v>88</v>
+      </c>
+      <c r="F172" s="15">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="G172" s="16">
+        <v>0.99697899999999995</v>
+      </c>
+      <c r="H172" s="2">
+        <v>5.68</v>
+      </c>
+      <c r="M172" s="19">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5839,8 +6163,23 @@
       <c r="D173" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="F173" s="15">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="G173" s="16">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="H173" s="2">
+        <v>54.83</v>
+      </c>
+      <c r="M173" s="19">
+        <v>0.1173611111111111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5855,7 +6194,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5863,8 +6202,14 @@
       <c r="B175" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>771</v>
+      </c>
+      <c r="D175" s="2">
+        <v>33830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5872,8 +6217,14 @@
       <c r="B176" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>770</v>
+      </c>
+      <c r="D176" s="2">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5881,8 +6232,14 @@
       <c r="B177" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5890,8 +6247,14 @@
       <c r="B178" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>769</v>
+      </c>
+      <c r="D178" s="2">
+        <v>50480</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -5906,7 +6269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -5921,7 +6284,7 @@
         <v>10870</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -5936,7 +6299,7 @@
         <v>13940</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -5951,7 +6314,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -5966,7 +6329,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -5975,7 +6338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -5990,10 +6353,34 @@
         <v>1000</v>
       </c>
       <c r="E185" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>187.2</v>
+      </c>
+      <c r="F185" s="16">
+        <v>8.1509999999999998</v>
+      </c>
+      <c r="G185" s="14">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="H185" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="27">
+        <v>223.9</v>
+      </c>
+      <c r="L185">
+        <v>228.2</v>
+      </c>
+      <c r="M185" s="20" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6002,7 +6389,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187">
         <f t="shared" ref="A187:A247" si="3">A186+1</f>
         <v>188</v>
@@ -6011,7 +6398,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6020,7 +6407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6029,589 +6416,603 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190">
+        <v>169</v>
+      </c>
+      <c r="B190" t="s">
+        <v>222</v>
+      </c>
+      <c r="E190" s="2">
+        <v>47.06</v>
+      </c>
+      <c r="F190" s="15">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="G190" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="H190" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="M190" s="19">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="B191" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="B192" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="B193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="B194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="B195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="B196" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="B197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="B198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="B199" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="B200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="B202" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="B203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="B204" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="B206" t="s">
+        <v>238</v>
+      </c>
+      <c r="C206" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="B207" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="B208" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="B209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="B210" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="B211" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="B190" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="B212" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="B191" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="B213" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="B192" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="B214" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="B193" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="B215" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="B194" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="B216" t="s">
+        <v>248</v>
+      </c>
+      <c r="C216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B195" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="B217" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B196" t="s">
-        <v>228</v>
-      </c>
-      <c r="C196" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="B218" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B197" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="B219" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B198" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="B220" t="s">
+        <v>252</v>
+      </c>
+      <c r="C220" t="s">
+        <v>709</v>
+      </c>
+      <c r="D220" s="2">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B199" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="B221" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="B200" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="B222" t="s">
+        <v>254</v>
+      </c>
+      <c r="C222" t="s">
+        <v>710</v>
+      </c>
+      <c r="D222" s="2">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="B201" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="B223" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="B202" t="s">
-        <v>234</v>
-      </c>
-      <c r="C202" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="B224" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B203" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="B225" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B204" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="B226" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B205" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="B227" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B206" t="s">
-        <v>238</v>
-      </c>
-      <c r="C206" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="B228" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B207" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="B229" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B208" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="B230" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B209" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="B231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
-      <c r="B210" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="B232" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-      <c r="B211" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="B233" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-      <c r="B212" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="B234" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-      <c r="B213" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="B235" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-      <c r="B214" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="B236" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="B237" t="s">
+        <v>272</v>
+      </c>
+      <c r="C237" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238">
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-      <c r="B216" t="s">
-        <v>248</v>
-      </c>
-      <c r="C216" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="B238" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B217" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="B239" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240">
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="B218" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="B240" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B219" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="B241" t="s">
+        <v>276</v>
+      </c>
+      <c r="C241" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="B220" t="s">
-        <v>252</v>
-      </c>
-      <c r="C220" t="s">
-        <v>709</v>
-      </c>
-      <c r="D220" s="2">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="B242" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243">
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="B221" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="B243" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244">
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
-      <c r="B222" t="s">
-        <v>254</v>
-      </c>
-      <c r="C222" t="s">
-        <v>710</v>
-      </c>
-      <c r="D222" s="2">
-        <v>10340</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="B244" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="B223" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="B245" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="B224" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="B246" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="B225" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="B226" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="B227" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <f t="shared" si="3"/>
-        <v>229</v>
-      </c>
-      <c r="B228" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="B229" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <f t="shared" si="3"/>
-        <v>231</v>
-      </c>
-      <c r="B230" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="B231" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <f t="shared" si="3"/>
-        <v>233</v>
-      </c>
-      <c r="B232" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="B233" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="B234" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="B236" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="B237" t="s">
-        <v>272</v>
-      </c>
-      <c r="C237" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <f t="shared" si="3"/>
-        <v>239</v>
-      </c>
-      <c r="B238" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="B239" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <f t="shared" si="3"/>
-        <v>241</v>
-      </c>
-      <c r="B240" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <f t="shared" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="B241" t="s">
-        <v>276</v>
-      </c>
-      <c r="C241" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <f t="shared" si="3"/>
-        <v>243</v>
-      </c>
-      <c r="B242" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <f t="shared" si="3"/>
-        <v>244</v>
-      </c>
-      <c r="B243" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-      <c r="B244" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <f t="shared" si="3"/>
-        <v>246</v>
-      </c>
-      <c r="B245" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <f t="shared" si="3"/>
-        <v>247</v>
-      </c>
-      <c r="B246" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <f t="shared" si="3"/>
-        <v>248</v>
-      </c>
       <c r="B247" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <f t="shared" ref="A248:A307" si="4">A247+1</f>
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B248" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B249" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B250" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
         <v>288</v>
@@ -6620,19 +7021,19 @@
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252">
         <f t="shared" si="4"/>
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B252" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253">
         <f t="shared" si="4"/>
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B253" t="s">
         <v>290</v>
@@ -6644,73 +7045,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <f t="shared" si="4"/>
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B255" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B256" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B258" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B259" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B260" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B261" t="s">
         <v>298</v>
@@ -6722,475 +7123,489 @@
         <v>800</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B262" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263">
+        <v>244</v>
+      </c>
+      <c r="B263" t="s">
+        <v>300</v>
+      </c>
+      <c r="E263" s="2">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F263" s="15">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0.98501499999999997</v>
+      </c>
+      <c r="H263" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="M263" s="19">
+        <v>0.18055555555555555</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="B264" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>246</v>
+      </c>
+      <c r="B265" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>247</v>
+      </c>
+      <c r="B266" t="s">
+        <v>303</v>
+      </c>
+      <c r="C266" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="B267" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="B268" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B269" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="B270" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="B271" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="B272" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="B273" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="B274" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="B275" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="B276" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="B277" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B278" t="s">
+        <v>316</v>
+      </c>
+      <c r="C278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B279" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B280" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B281" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B282" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A283">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="B263" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="B283" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A284">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B264" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="B284" t="s">
+        <v>323</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A285">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
-      <c r="B265" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266">
+      <c r="B285" t="s">
+        <v>324</v>
+      </c>
+      <c r="C285" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A286">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="B266" t="s">
-        <v>303</v>
-      </c>
-      <c r="C266" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267">
+      <c r="B286" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A287">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="B267" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268">
+      <c r="B287" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A288">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="B268" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269">
+      <c r="B288" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A289">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="B269" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270">
+      <c r="B289" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A290">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="B270" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271">
+      <c r="B290" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A291">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="B271" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272">
+      <c r="B291" t="s">
+        <v>330</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A292">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="B272" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273">
+      <c r="B292" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A293">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="B273" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274">
+      <c r="B293" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A294">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="B274" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275">
+      <c r="B294" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A295">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="B275" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276">
+      <c r="B295" t="s">
+        <v>334</v>
+      </c>
+      <c r="C295" t="s">
+        <v>683</v>
+      </c>
+      <c r="D295" s="2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A296">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="B276" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277">
+      <c r="B296" t="s">
+        <v>335</v>
+      </c>
+      <c r="C296" t="s">
+        <v>712</v>
+      </c>
+      <c r="D296" s="2">
+        <v>49790</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A297">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="B277" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278">
+      <c r="B297" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="2">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A298">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="B278" t="s">
-        <v>316</v>
-      </c>
-      <c r="C278" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279">
+      <c r="B298" t="s">
+        <v>337</v>
+      </c>
+      <c r="C298" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A299">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="B279" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280">
+      <c r="B299" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A300">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="B280" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281">
+      <c r="B300" t="s">
+        <v>339</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A301">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="B281" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282">
+      <c r="B301" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A302">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="B282" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283">
+      <c r="B302" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A303">
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
-      <c r="B283" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284">
+      <c r="B303" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A304">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="B284" t="s">
-        <v>323</v>
-      </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285">
+      <c r="B304" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="B285" t="s">
-        <v>324</v>
-      </c>
-      <c r="C285" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286">
+      <c r="B305" t="s">
+        <v>344</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306">
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
-      <c r="B286" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287">
+      <c r="B306" t="s">
+        <v>345</v>
+      </c>
+      <c r="C306" t="s">
+        <v>713</v>
+      </c>
+      <c r="D306" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="B287" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="B288" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <f t="shared" si="4"/>
-        <v>290</v>
-      </c>
-      <c r="B289" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <f t="shared" si="4"/>
-        <v>291</v>
-      </c>
-      <c r="B290" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <f t="shared" si="4"/>
-        <v>292</v>
-      </c>
-      <c r="B291" t="s">
-        <v>330</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <f t="shared" si="4"/>
-        <v>293</v>
-      </c>
-      <c r="B292" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <f t="shared" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="B293" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <f t="shared" si="4"/>
-        <v>295</v>
-      </c>
-      <c r="B294" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <f t="shared" si="4"/>
-        <v>296</v>
-      </c>
-      <c r="B295" t="s">
-        <v>334</v>
-      </c>
-      <c r="C295" t="s">
-        <v>683</v>
-      </c>
-      <c r="D295" s="2">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <f t="shared" si="4"/>
-        <v>297</v>
-      </c>
-      <c r="B296" t="s">
-        <v>335</v>
-      </c>
-      <c r="C296" t="s">
-        <v>712</v>
-      </c>
-      <c r="D296" s="2">
-        <v>49790</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <f t="shared" si="4"/>
-        <v>298</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" s="2">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <f t="shared" si="4"/>
-        <v>299</v>
-      </c>
-      <c r="B298" t="s">
-        <v>337</v>
-      </c>
-      <c r="C298" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="B299" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <f t="shared" si="4"/>
-        <v>301</v>
-      </c>
-      <c r="B300" t="s">
-        <v>339</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <f t="shared" si="4"/>
-        <v>302</v>
-      </c>
-      <c r="B301" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <f t="shared" si="4"/>
-        <v>303</v>
-      </c>
-      <c r="B302" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <f t="shared" si="4"/>
-        <v>304</v>
-      </c>
-      <c r="B303" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <f t="shared" si="4"/>
-        <v>305</v>
-      </c>
-      <c r="B304" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305">
-        <f t="shared" si="4"/>
-        <v>306</v>
-      </c>
-      <c r="B305" t="s">
-        <v>344</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <f t="shared" si="4"/>
-        <v>307</v>
-      </c>
-      <c r="B306" t="s">
-        <v>345</v>
-      </c>
-      <c r="C306" t="s">
-        <v>713</v>
-      </c>
-      <c r="D306" s="2">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <f t="shared" si="4"/>
-        <v>308</v>
-      </c>
       <c r="B307" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308">
         <f t="shared" ref="A308:A369" si="5">A307+1</f>
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B308" t="s">
         <v>348</v>
@@ -7199,10 +7614,10 @@
         <v>84.53</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309">
         <f t="shared" si="5"/>
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B309" t="s">
         <v>349</v>
@@ -7211,25 +7626,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310">
         <f t="shared" si="5"/>
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B310" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311">
         <f t="shared" si="5"/>
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B311" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>317</v>
       </c>
@@ -7240,19 +7655,19 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313">
         <f>A311+1</f>
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B313" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314">
         <f t="shared" si="5"/>
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B314" t="s">
         <v>353</v>
@@ -7261,118 +7676,118 @@
         <v>563</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315">
         <f t="shared" si="5"/>
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B315" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316">
         <f t="shared" si="5"/>
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B316" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317">
         <f t="shared" si="5"/>
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B317" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318">
         <f t="shared" si="5"/>
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B318" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319">
         <f t="shared" si="5"/>
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B319" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B320" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A321">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B321" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A322">
         <f t="shared" si="5"/>
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B322" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A323">
         <f t="shared" si="5"/>
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B323" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A324">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B324" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A325">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A326">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B326" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A327">
         <f t="shared" si="5"/>
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B327" t="s">
         <v>366</v>
@@ -7384,10 +7799,10 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A328">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B328" t="s">
         <v>367</v>
@@ -7396,28 +7811,42 @@
         <v>582</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A329">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B329" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A330">
-        <f t="shared" si="5"/>
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" s="2">
+        <v>28.96</v>
+      </c>
+      <c r="F330" s="15">
+        <v>0.93873399999999996</v>
+      </c>
+      <c r="G330" s="16">
+        <v>0.86621899999999996</v>
+      </c>
+      <c r="H330" s="2">
+        <v>22.42</v>
+      </c>
+      <c r="M330" s="19">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A331">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B331" t="s">
         <v>370</v>
@@ -7429,100 +7858,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A332">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="B332" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A333">
         <f t="shared" si="5"/>
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="B333" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A334">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="B334" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A335">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B335" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A336">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B336" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337">
         <f t="shared" si="5"/>
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="B337" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338">
         <f t="shared" si="5"/>
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="B338" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="B339" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B340" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="B341" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B342" t="s">
         <v>383</v>
@@ -7534,64 +7963,64 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343">
         <f t="shared" si="5"/>
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="B343" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="B344" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="B345" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346">
         <f t="shared" si="5"/>
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="B346" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347">
         <f t="shared" si="5"/>
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="B347" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348">
         <f t="shared" si="5"/>
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="B348" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349">
         <f t="shared" si="5"/>
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B349" t="s">
         <v>391</v>
@@ -7600,100 +8029,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="B350" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351">
         <f t="shared" si="5"/>
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B351" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="B352" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="B353" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354">
         <f t="shared" si="5"/>
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="B354" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355">
         <f t="shared" si="5"/>
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="B355" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356">
         <f t="shared" si="5"/>
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B356" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="B357" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358">
         <f t="shared" si="5"/>
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="B358" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359">
         <f t="shared" si="5"/>
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="B359" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="B360" t="s">
         <v>402</v>
@@ -7705,37 +8134,37 @@
         <v>77190</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361">
         <f t="shared" si="5"/>
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="B361" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362">
         <f t="shared" si="5"/>
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="B362" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363">
         <f t="shared" si="5"/>
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="B363" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364">
         <f t="shared" si="5"/>
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="B364" t="s">
         <v>407</v>
@@ -7744,73 +8173,73 @@
         <v>567</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365">
         <f t="shared" si="5"/>
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="B365" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366">
         <f t="shared" si="5"/>
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="B366" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367">
         <f t="shared" si="5"/>
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="B367" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368">
         <f t="shared" si="5"/>
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="B368" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="B369" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370">
         <f t="shared" ref="A370:A430" si="6">A369+1</f>
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="B370" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="B371" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372">
         <f t="shared" si="6"/>
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="B372" t="s">
         <v>415</v>
@@ -7822,199 +8251,199 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373">
         <f t="shared" si="6"/>
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="B373" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374">
         <f t="shared" si="6"/>
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="B374" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375">
         <f t="shared" si="6"/>
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="B375" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376">
         <f t="shared" si="6"/>
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="B376" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377">
         <f t="shared" si="6"/>
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="B377" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378">
         <f t="shared" si="6"/>
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="B378" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379">
         <f t="shared" si="6"/>
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="B379" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380">
         <f t="shared" si="6"/>
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="B380" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381">
         <f t="shared" si="6"/>
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B381" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382">
         <f t="shared" si="6"/>
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="B382" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383">
         <f t="shared" si="6"/>
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="B383" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384">
         <f t="shared" si="6"/>
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="B384" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385">
         <f t="shared" si="6"/>
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="B385" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386">
         <f t="shared" si="6"/>
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B386" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387">
         <f t="shared" si="6"/>
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B387" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388">
         <f t="shared" si="6"/>
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="B388" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389">
         <f t="shared" si="6"/>
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="B389" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390">
         <f t="shared" si="6"/>
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="B390" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391">
         <f t="shared" si="6"/>
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="B391" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392">
         <f t="shared" si="6"/>
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="B392" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393">
         <f t="shared" si="6"/>
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394">
         <f t="shared" si="6"/>
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
         <v>437</v>
@@ -8023,19 +8452,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395">
         <f t="shared" si="6"/>
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="B395" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396">
         <f t="shared" si="6"/>
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="B396" t="s">
         <v>439</v>
@@ -8044,46 +8473,46 @@
         <v>718</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397">
         <f t="shared" si="6"/>
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="B397" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398">
         <f t="shared" si="6"/>
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="B398" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399">
         <f t="shared" si="6"/>
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B399" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="B400" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401">
         <f t="shared" si="6"/>
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="B401" t="s">
         <v>444</v>
@@ -8092,37 +8521,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402">
         <f t="shared" si="6"/>
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B402" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403">
         <f t="shared" si="6"/>
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="B403" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404">
         <f t="shared" si="6"/>
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="B404" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405">
         <f t="shared" si="6"/>
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="B405" t="s">
         <v>448</v>
@@ -8131,10 +8560,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406">
         <f t="shared" si="6"/>
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="B406" t="s">
         <v>449</v>
@@ -8143,28 +8572,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407">
         <f t="shared" si="6"/>
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="B407" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408">
         <f t="shared" si="6"/>
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="B408" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409">
         <f t="shared" si="6"/>
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="B409" t="s">
         <v>452</v>
@@ -8173,73 +8602,73 @@
         <v>580</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410">
         <f t="shared" si="6"/>
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="B410" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411">
         <f t="shared" si="6"/>
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="B411" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412">
         <f t="shared" si="6"/>
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="B412" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413">
         <f t="shared" si="6"/>
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B413" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414">
         <f t="shared" si="6"/>
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="B414" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415">
         <f t="shared" si="6"/>
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="B415" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416">
         <f t="shared" si="6"/>
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="B416" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417">
         <f t="shared" si="6"/>
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="B417" t="s">
         <v>461</v>
@@ -8248,64 +8677,64 @@
         <v>550</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418">
         <f t="shared" si="6"/>
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="B418" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419">
         <f t="shared" si="6"/>
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="B419" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420">
         <f t="shared" si="6"/>
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="B420" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421">
         <f t="shared" si="6"/>
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B421" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422">
         <f t="shared" si="6"/>
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="B422" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423">
         <f t="shared" si="6"/>
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="B423" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424">
         <f t="shared" si="6"/>
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B424" t="s">
         <v>600</v>
@@ -8317,37 +8746,37 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425">
         <f t="shared" si="6"/>
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426">
         <f t="shared" si="6"/>
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="B426" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427">
         <f t="shared" si="6"/>
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="B427" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428">
         <f t="shared" si="6"/>
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="B428" t="s">
         <v>474</v>
@@ -8356,10 +8785,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429">
         <f t="shared" si="6"/>
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="B429" t="s">
         <v>475</v>
@@ -8371,19 +8800,19 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430">
         <f t="shared" si="6"/>
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="B430" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431">
         <f t="shared" ref="A431:A469" si="7">A430+1</f>
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="B431" t="s">
         <v>477</v>
@@ -8392,109 +8821,109 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432">
         <f t="shared" si="7"/>
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="B432" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433">
         <f t="shared" si="7"/>
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="B433" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434">
         <f t="shared" si="7"/>
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="B434" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435">
         <f t="shared" si="7"/>
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="B435" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436">
         <f t="shared" si="7"/>
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="B436" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437">
         <f t="shared" si="7"/>
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B437" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438">
         <f t="shared" si="7"/>
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="B438" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439">
         <f t="shared" si="7"/>
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="B439" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440">
         <f t="shared" si="7"/>
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="B440" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441">
         <f t="shared" si="7"/>
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442">
         <f t="shared" si="7"/>
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="B442" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443">
         <f t="shared" si="7"/>
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="B443" t="s">
         <v>491</v>
@@ -8506,37 +8935,37 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444">
         <f t="shared" si="7"/>
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="B444" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445">
         <f t="shared" si="7"/>
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B445" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="3">
         <f t="shared" si="7"/>
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447">
         <f t="shared" si="7"/>
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="B447" t="s">
         <v>495</v>
@@ -8545,91 +8974,91 @@
         <v>565</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448">
         <f t="shared" si="7"/>
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B448" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" s="3">
         <f t="shared" si="7"/>
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A450">
         <f t="shared" si="7"/>
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="B450" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="3">
         <f t="shared" si="7"/>
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="B451" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A452">
         <f t="shared" si="7"/>
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="B452" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A453">
         <f t="shared" si="7"/>
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B453" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A454">
         <f t="shared" si="7"/>
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="B454" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455">
         <f t="shared" si="7"/>
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="B455" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A456">
         <f t="shared" si="7"/>
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="B456" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A457">
         <f t="shared" si="7"/>
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="B457" t="s">
         <v>507</v>
@@ -8641,55 +9070,55 @@
         <v>265</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A458">
         <f t="shared" si="7"/>
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="B458" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A459">
         <f t="shared" si="7"/>
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="B459" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A460">
         <f t="shared" si="7"/>
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B460" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A461">
         <f t="shared" si="7"/>
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="B461" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A462">
         <f t="shared" si="7"/>
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="B462" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463">
         <f t="shared" si="7"/>
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="B463" t="s">
         <v>513</v>
@@ -8698,7 +9127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>469</v>
       </c>
@@ -8709,28 +9138,28 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465">
         <f>A463+1</f>
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="B465" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466">
         <f t="shared" si="7"/>
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="B466" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467">
         <f t="shared" si="7"/>
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="B467" t="s">
         <v>516</v>
@@ -8739,25 +9168,25 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468">
         <f t="shared" si="7"/>
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469">
         <f t="shared" si="7"/>
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="B469" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>489</v>
       </c>
@@ -8771,7 +9200,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>517</v>
       </c>
@@ -8785,7 +9214,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>537</v>
       </c>
@@ -8799,7 +9228,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>557</v>
       </c>
@@ -8810,7 +9239,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>587</v>
       </c>
@@ -8821,7 +9250,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>601</v>
       </c>
@@ -8838,7 +9267,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>625</v>
       </c>
@@ -8849,7 +9278,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>668</v>
       </c>
@@ -8860,7 +9289,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>691</v>
       </c>
@@ -8871,7 +9300,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>707</v>
       </c>
@@ -8882,7 +9311,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>720</v>
       </c>
@@ -8893,7 +9322,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>729</v>
       </c>
@@ -8904,7 +9333,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>737</v>
       </c>
@@ -8915,7 +9344,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>745</v>
       </c>
@@ -8929,7 +9358,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>784</v>
       </c>
@@ -8940,7 +9369,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>804</v>
       </c>
@@ -8954,7 +9383,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>852</v>
       </c>
@@ -8968,7 +9397,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>855</v>
       </c>
@@ -8979,7 +9408,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>903</v>
       </c>
@@ -8990,7 +9419,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>946</v>
       </c>
@@ -9001,7 +9430,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>1004</v>
       </c>
@@ -9012,7 +9441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>1017</v>
       </c>
@@ -9023,7 +9452,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>1020</v>
       </c>
@@ -9031,10 +9460,22 @@
         <v>576</v>
       </c>
       <c r="E492" s="2">
-        <v>19.850000000000001</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.77</v>
+      </c>
+      <c r="F492" s="15">
+        <v>0.52566199999999996</v>
+      </c>
+      <c r="G492" s="16">
+        <v>0.42083700000000002</v>
+      </c>
+      <c r="H492" s="2">
+        <v>9.3979999999999997</v>
+      </c>
+      <c r="M492" s="21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>1057</v>
       </c>
@@ -9045,7 +9486,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>1058</v>
       </c>
@@ -9056,7 +9497,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>1063</v>
       </c>
@@ -9067,7 +9508,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>1069</v>
       </c>
@@ -9075,10 +9516,22 @@
         <v>726</v>
       </c>
       <c r="E496" s="2">
-        <v>20.95</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22.74</v>
+      </c>
+      <c r="F496" s="15">
+        <v>0.74942299999999995</v>
+      </c>
+      <c r="G496" s="16">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="H496" s="2">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="M496" s="19">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>1125</v>
       </c>
@@ -9089,7 +9542,7 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>1180</v>
       </c>
@@ -9100,7 +9553,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>1256</v>
       </c>
@@ -9111,7 +9564,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>1315</v>
       </c>
@@ -9122,7 +9575,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>1334</v>
       </c>
@@ -9133,7 +9586,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>1353</v>
       </c>
@@ -9144,7 +9597,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>1369</v>
       </c>
@@ -9155,7 +9608,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>1385</v>
       </c>
@@ -9166,7 +9619,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>1413</v>
       </c>
@@ -9180,7 +9633,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>1442</v>
       </c>
@@ -9191,7 +9644,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>1448</v>
       </c>
@@ -9202,7 +9655,7 @@
         <v>7.6420000000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>1452</v>
       </c>
@@ -9213,7 +9666,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>1472</v>
       </c>
@@ -9221,9 +9674,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>1519</v>
+        <v>1370</v>
       </c>
       <c r="B510" t="s">
         <v>590</v>
@@ -9232,10 +9685,22 @@
         <v>6</v>
       </c>
       <c r="E510" s="2">
-        <v>19.079999999999998</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.04</v>
+      </c>
+      <c r="F510" s="15">
+        <v>0.67822000000000005</v>
+      </c>
+      <c r="G510" s="16">
+        <v>0.599553</v>
+      </c>
+      <c r="H510" s="2">
+        <v>8.0830000000000002</v>
+      </c>
+      <c r="M510" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>1551</v>
       </c>
@@ -9246,7 +9711,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>1609</v>
       </c>
@@ -9257,7 +9722,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>1611</v>
       </c>
@@ -9268,698 +9733,1052 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="B514" t="s">
+        <v>760</v>
+      </c>
+      <c r="E514" s="2">
+        <v>10.41</v>
+      </c>
+      <c r="F514" s="15">
+        <v>0.38325799999999999</v>
+      </c>
+      <c r="G514" s="16">
+        <v>0.36001499999999997</v>
+      </c>
+      <c r="H514" s="2">
+        <v>8.4350000000000005</v>
+      </c>
+      <c r="M514" s="19">
+        <v>9.1666666666666674E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="3">
+        <v>1880</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="E514" s="2">
-        <v>13.36</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A515">
+      <c r="D515" s="4"/>
+      <c r="E515" s="4">
+        <v>13.54</v>
+      </c>
+      <c r="F515" s="16">
+        <v>0.39598</v>
+      </c>
+      <c r="G515" s="16">
+        <v>0.29293400000000003</v>
+      </c>
+      <c r="H515" s="4">
+        <v>5.3620000000000001</v>
+      </c>
+      <c r="I515" s="9"/>
+      <c r="J515" s="9"/>
+      <c r="K515" s="9"/>
+      <c r="M515" s="22" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A516">
         <v>1652</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B516" t="s">
         <v>629</v>
       </c>
-      <c r="E515" s="2">
+      <c r="E516" s="2">
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A516">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A517">
         <v>1655</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B517" t="s">
         <v>649</v>
       </c>
-      <c r="E516" s="2">
+      <c r="E517" s="2">
         <v>28.27</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A517">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A518">
         <v>1669</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B518" t="s">
         <v>643</v>
       </c>
-      <c r="E517" s="2">
+      <c r="E518" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A518">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A519">
         <v>1727</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B519" t="s">
         <v>734</v>
       </c>
-      <c r="E518" s="2">
+      <c r="E519" s="2">
         <v>21.92</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A519">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A520">
         <v>1804</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B520" t="s">
         <v>594</v>
       </c>
-      <c r="E519" s="2">
+      <c r="E520" s="2">
         <v>6.01</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A520">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A521">
         <v>1829</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B521" t="s">
         <v>620</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C521" t="s">
         <v>622</v>
       </c>
-      <c r="E520" s="2">
+      <c r="E521" s="2">
         <v>14.19</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A521">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A522">
         <v>1890</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B522" t="s">
         <v>597</v>
       </c>
-      <c r="E521" s="2">
+      <c r="E522" s="2">
         <v>13.39</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A522">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A523">
         <v>2015</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B523" t="s">
         <v>586</v>
       </c>
-      <c r="E522" s="2">
+      <c r="E523" s="2">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A523">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A524">
         <v>2042</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B524" t="s">
         <v>652</v>
       </c>
-      <c r="E523" s="2">
+      <c r="E524" s="2">
         <v>12.13</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A524">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A525">
         <v>2079</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B525" t="s">
         <v>610</v>
       </c>
-      <c r="E524" s="2">
+      <c r="E525" s="2">
         <v>12.233000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A525">
-        <v>2213</v>
-      </c>
-      <c r="B525" t="s">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B526" t="s">
+        <v>754</v>
+      </c>
+      <c r="E526" s="2">
+        <v>95.92</v>
+      </c>
+      <c r="F526" s="15">
+        <v>2.9209999999999998</v>
+      </c>
+      <c r="G526" s="16">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="H526" s="2">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A527">
+        <v>2104</v>
+      </c>
+      <c r="B527" t="s">
         <v>732</v>
       </c>
-      <c r="E525" s="2">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A526">
+      <c r="E527" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="F527" s="15">
+        <v>0.42155100000000001</v>
+      </c>
+      <c r="G527" s="16">
+        <v>0.38603999999999999</v>
+      </c>
+      <c r="H527" s="2">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="M527" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A528">
+        <v>2160</v>
+      </c>
+      <c r="B528" t="s">
+        <v>766</v>
+      </c>
+      <c r="E528" s="2">
+        <v>48.78</v>
+      </c>
+      <c r="F528" s="15">
+        <v>1.589</v>
+      </c>
+      <c r="G528" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="H528" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="M528" s="23">
+        <v>0.16041666666666668</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A529">
         <v>2226</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B529" t="s">
         <v>605</v>
       </c>
-      <c r="E526" s="2">
+      <c r="E529" s="2">
         <v>4.218</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A527">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A530">
         <v>2236</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B530" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A528">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A531">
+        <v>2300</v>
+      </c>
+      <c r="B531" t="s">
+        <v>762</v>
+      </c>
+      <c r="E531" s="2">
+        <v>10.84</v>
+      </c>
+      <c r="F531" s="15">
+        <v>0.378438</v>
+      </c>
+      <c r="G531" s="16">
+        <v>0.34661900000000001</v>
+      </c>
+      <c r="H531" s="2">
+        <v>7.774</v>
+      </c>
+      <c r="M531" s="19">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A532">
         <v>2349</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B532" t="s">
         <v>725</v>
       </c>
-      <c r="E528" s="2">
+      <c r="E532" s="2">
         <v>13.03</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A529">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A533">
         <v>2463</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B533" t="s">
         <v>675</v>
       </c>
-      <c r="E529" s="2">
+      <c r="E533" s="2">
         <v>10.17</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A530">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A534">
+        <v>2466</v>
+      </c>
+      <c r="B534" t="s">
+        <v>764</v>
+      </c>
+      <c r="E534" s="2">
+        <v>20.74</v>
+      </c>
+      <c r="F534" s="15">
+        <v>0.66327000000000003</v>
+      </c>
+      <c r="G534" s="16">
+        <v>0.315384</v>
+      </c>
+      <c r="H534" s="2">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="M534" s="19">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A535">
         <v>2628</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B535" t="s">
         <v>573</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C535" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A531">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A536">
         <v>2738</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B536" t="s">
         <v>664</v>
       </c>
-      <c r="E531" s="2">
+      <c r="E536" s="2">
         <v>4.9560000000000004</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A532">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A537">
         <v>2843</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B537" t="s">
         <v>638</v>
       </c>
-      <c r="E532" s="2">
+      <c r="E537" s="2">
         <v>16.63</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A533">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A538">
         <v>2870</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B538" t="s">
         <v>657</v>
       </c>
-      <c r="E533" s="2">
+      <c r="E538" s="2">
         <v>4.1989999999999998</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A534">
-        <v>2880</v>
-      </c>
-      <c r="B534" t="s">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A539">
+        <v>3042</v>
+      </c>
+      <c r="B539" t="s">
         <v>598</v>
       </c>
-      <c r="E534" s="2">
-        <v>9.3209999999999997</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A535">
+      <c r="E539" s="2">
+        <v>9.9039999999999999</v>
+      </c>
+      <c r="F539" s="15">
+        <v>0.295076</v>
+      </c>
+      <c r="G539" s="16">
+        <v>0.23366999999999999</v>
+      </c>
+      <c r="H539" s="2">
+        <v>4.6609999999999996</v>
+      </c>
+      <c r="M539" s="21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A540">
         <v>2912</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B540" t="s">
         <v>614</v>
       </c>
-      <c r="E535" s="2">
+      <c r="E540" s="2">
         <v>6.2709999999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A536">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A541">
         <v>2917</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B541" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A537">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A542">
         <v>3107</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B542" t="s">
         <v>727</v>
       </c>
-      <c r="E537" s="2">
+      <c r="E542" s="2">
         <v>10.51</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A538">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A543">
         <v>3330</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B543" t="s">
         <v>634</v>
       </c>
-      <c r="E538" s="2">
+      <c r="E543" s="2">
         <v>15.97</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A539">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A544">
         <v>3616</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B544" t="s">
         <v>653</v>
       </c>
-      <c r="E539" s="2">
+      <c r="E544" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A540">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A545">
         <v>3637</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B545" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A541">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A546">
         <v>3747</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B546" t="s">
         <v>655</v>
       </c>
-      <c r="E541" s="2">
+      <c r="E546" s="2">
         <v>5.5439999999999996</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A542">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A547">
+        <v>3791</v>
+      </c>
+      <c r="B547" t="s">
+        <v>763</v>
+      </c>
+      <c r="E547" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="F547" s="15">
+        <v>0.17097499999999999</v>
+      </c>
+      <c r="G547" s="16">
+        <v>0.159524</v>
+      </c>
+      <c r="H547" s="2">
+        <v>3.391</v>
+      </c>
+      <c r="M547" s="19">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A548">
         <v>3955</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B548" t="s">
         <v>613</v>
       </c>
-      <c r="E542" s="2">
+      <c r="E548" s="2">
         <v>24.75</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A543">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A549">
         <v>4009</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B549" t="s">
         <v>604</v>
       </c>
-      <c r="E543" s="2">
+      <c r="E549" s="2">
         <v>15.7</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A544">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A550">
         <v>4091</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B550" t="s">
         <v>592</v>
       </c>
-      <c r="E544" s="2">
+      <c r="E550" s="2">
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A545">
-        <v>4333</v>
-      </c>
-      <c r="B545" t="s">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A551">
+        <v>5084</v>
+      </c>
+      <c r="B551" t="s">
         <v>639</v>
       </c>
-      <c r="E545" s="2">
-        <v>5.5579999999999998</v>
-      </c>
-    </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A546">
+      <c r="E551" s="2">
+        <v>5.625</v>
+      </c>
+      <c r="F551" s="15">
+        <v>0.152084</v>
+      </c>
+      <c r="G551" s="16">
+        <v>0.14216699999999999</v>
+      </c>
+      <c r="H551" s="2">
+        <v>4.2009999999999996</v>
+      </c>
+      <c r="M551" s="19">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A552">
         <v>4509</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B552" t="s">
         <v>587</v>
       </c>
-      <c r="E546" s="2">
+      <c r="E552" s="2">
         <v>8.8710000000000004</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A547">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A553">
         <v>4999</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B553" t="s">
         <v>630</v>
       </c>
-      <c r="E547" s="2">
+      <c r="E553" s="2">
         <v>6.782</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A548">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A554">
         <v>5033</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B554" t="s">
         <v>637</v>
       </c>
-      <c r="E548" s="2">
+      <c r="E554" s="2">
         <v>6.0430000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A549">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A555">
         <v>5074</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B555" t="s">
         <v>627</v>
       </c>
-      <c r="E549" s="2">
+      <c r="E555" s="2">
         <v>14.71</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A550">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A556">
         <v>5508</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B556" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A551" s="3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A557" s="3">
         <v>5820</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B557" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4">
-        <v>5.649</v>
-      </c>
-      <c r="F551" s="4"/>
-      <c r="H551" s="4"/>
-      <c r="I551" s="9"/>
-      <c r="J551" s="9"/>
-      <c r="K551" s="3"/>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A552">
+      <c r="D557" s="4"/>
+      <c r="E557" s="16">
+        <v>5.806</v>
+      </c>
+      <c r="F557" s="16">
+        <v>0.17149500000000001</v>
+      </c>
+      <c r="G557" s="16">
+        <v>0.15160899999999999</v>
+      </c>
+      <c r="H557" s="16">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="I557" s="9"/>
+      <c r="J557" s="9"/>
+      <c r="K557" s="9"/>
+      <c r="L557" s="3"/>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A558">
+        <v>5863</v>
+      </c>
+      <c r="B558" t="s">
+        <v>761</v>
+      </c>
+      <c r="E558" s="15">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="F558" s="15">
+        <v>7.3075000000000001E-2</v>
+      </c>
+      <c r="G558" s="15">
+        <v>6.7874000000000004E-2</v>
+      </c>
+      <c r="H558" s="15">
+        <v>1.782</v>
+      </c>
+      <c r="M558" s="19">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A559">
         <v>5998</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B559" t="s">
         <v>617</v>
       </c>
-      <c r="E552" s="2">
+      <c r="E559" s="15">
         <v>5.8819999999999997</v>
       </c>
-      <c r="L552" s="3"/>
-    </row>
-    <row r="553" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A553">
+      <c r="H559" s="15"/>
+      <c r="M559" s="3"/>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A560">
+        <v>6316</v>
+      </c>
+      <c r="B560" t="s">
+        <v>767</v>
+      </c>
+      <c r="E560" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="F560" s="15">
+        <v>0.42543599999999998</v>
+      </c>
+      <c r="G560" s="25">
+        <v>0.29056500000000002</v>
+      </c>
+      <c r="H560" s="15">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="M560" s="24">
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A561">
         <v>6614</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B561" t="s">
         <v>635</v>
       </c>
-      <c r="C553"/>
-      <c r="D553" s="2"/>
-      <c r="E553" s="2">
+      <c r="C561"/>
+      <c r="D561" s="2"/>
+      <c r="E561" s="15">
         <v>3.1070000000000002</v>
       </c>
-      <c r="F553" s="2"/>
-      <c r="G553" s="4"/>
-      <c r="H553" s="2"/>
-      <c r="I553" s="1"/>
-      <c r="J553" s="1"/>
-      <c r="K553"/>
-      <c r="L553"/>
-    </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A554">
+      <c r="F561" s="15"/>
+      <c r="G561" s="16"/>
+      <c r="H561" s="15"/>
+      <c r="I561" s="1"/>
+      <c r="J561" s="1"/>
+      <c r="K561" s="1"/>
+      <c r="L561"/>
+      <c r="M561"/>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A562">
         <v>6758</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B562" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A555">
+      <c r="E562" s="15"/>
+      <c r="H562" s="15"/>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A563">
         <v>7588</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B563" t="s">
         <v>730</v>
       </c>
-      <c r="E555" s="2">
+      <c r="E563" s="15">
         <v>2.4820000000000002</v>
       </c>
-    </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A556">
+      <c r="H563" s="15"/>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A564">
         <v>7610</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B564" t="s">
         <v>674</v>
       </c>
-      <c r="E556" s="2">
+      <c r="E564" s="15">
         <v>1.831</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A557">
+      <c r="H564" s="15"/>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A565">
+        <v>7649</v>
+      </c>
+      <c r="B565" t="s">
+        <v>768</v>
+      </c>
+      <c r="E565" s="15">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="F565" s="15">
+        <v>0.14110700000000001</v>
+      </c>
+      <c r="G565" s="16">
+        <v>0.123987</v>
+      </c>
+      <c r="H565" s="15">
+        <v>2.968</v>
+      </c>
+      <c r="M565" s="19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A566">
+        <v>8340</v>
+      </c>
+      <c r="B566" t="s">
+        <v>765</v>
+      </c>
+      <c r="E566" s="15">
+        <v>6.0629999999999997</v>
+      </c>
+      <c r="F566" s="15">
+        <v>0.18499499999999999</v>
+      </c>
+      <c r="G566" s="16">
+        <v>0.16447500000000001</v>
+      </c>
+      <c r="H566" s="15">
+        <v>4.218</v>
+      </c>
+      <c r="M566" s="19">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A567">
         <v>9045</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B567" t="s">
         <v>611</v>
       </c>
-      <c r="E557" s="2">
+      <c r="E567" s="15">
         <v>2.012</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A558">
+      <c r="H567" s="15"/>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A568">
         <v>9655</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B568" t="s">
         <v>642</v>
       </c>
-      <c r="E558" s="2">
+      <c r="E568" s="15">
         <v>5.694</v>
       </c>
-    </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A559">
+      <c r="H568" s="15"/>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A569">
         <v>9935</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B569" t="s">
         <v>595</v>
       </c>
-      <c r="E559" s="2">
+      <c r="E569" s="15">
         <v>2.085</v>
       </c>
-    </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A560">
-        <v>9946</v>
-      </c>
-      <c r="B560" t="s">
+      <c r="H569" s="15"/>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A570">
+        <v>9194</v>
+      </c>
+      <c r="B570" t="s">
         <v>579</v>
       </c>
-      <c r="E560" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A561">
+      <c r="E570" s="15">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="F570" s="15">
+        <v>7.4180999999999997E-2</v>
+      </c>
+      <c r="G570" s="16">
+        <v>6.5727999999999995E-2</v>
+      </c>
+      <c r="H570" s="15">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M570" s="21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A571">
         <v>11140</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B571" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A562">
+      <c r="E571" s="15"/>
+      <c r="H571" s="15"/>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A572">
         <v>11657</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B572" t="s">
         <v>606</v>
       </c>
-      <c r="E562" s="2">
+      <c r="E572" s="15">
         <v>5.976</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A563">
+      <c r="H572" s="15"/>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A573">
         <v>14219</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B573" t="s">
         <v>636</v>
       </c>
-      <c r="E563" s="2">
+      <c r="E573" s="15">
         <v>2.0870000000000002</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A564">
+      <c r="H573" s="15"/>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A574">
         <v>14684</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B574" t="s">
         <v>583</v>
       </c>
-      <c r="E564" s="2">
+      <c r="E574" s="15">
         <v>1.506</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A565">
+      <c r="H574" s="15"/>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A575">
         <v>15418</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B575" t="s">
         <v>615</v>
       </c>
-      <c r="E565" s="2">
+      <c r="E575" s="15">
         <v>0.91088999999999998</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A566">
+      <c r="H575" s="15"/>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A576">
         <v>15739</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B576" t="s">
         <v>607</v>
       </c>
-      <c r="E566" s="2">
+      <c r="E576" s="15">
         <v>1.871</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A567">
+      <c r="H576" s="15"/>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A577">
         <v>17811</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B577" t="s">
         <v>633</v>
       </c>
-      <c r="E567" s="2">
+      <c r="E577" s="15">
         <v>1.2130000000000001</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A568">
+      <c r="H577" s="15"/>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A578">
         <v>20331</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B578" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A569">
+      <c r="E578" s="15"/>
+      <c r="H578" s="15"/>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A579">
         <v>20744</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B579" t="s">
         <v>591</v>
       </c>
-      <c r="E569" s="2">
+      <c r="E579" s="15">
         <v>1.9430000000000001</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A570">
+      <c r="H579" s="15"/>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A580">
         <v>21671</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B580" t="s">
         <v>584</v>
       </c>
-      <c r="E570" s="2">
+      <c r="E580" s="15">
         <v>1.143</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A571">
+      <c r="H580" s="15"/>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A581">
         <v>25457</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B581" t="s">
         <v>612</v>
       </c>
-      <c r="E571" s="2">
+      <c r="E581" s="15">
         <v>1.218</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A572">
+      <c r="H581" s="15"/>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A582">
         <v>26530</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B582" t="s">
         <v>616</v>
       </c>
-      <c r="E572" s="2">
+      <c r="E582" s="15">
         <v>0.76245099999999999</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A573">
+      <c r="H582" s="15"/>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A583">
         <v>29678</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B583" t="s">
         <v>596</v>
       </c>
-      <c r="E573" s="2">
+      <c r="E583" s="15">
         <v>0.554697</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A574">
+      <c r="H583" s="15"/>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A584">
         <v>33173</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B584" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A575">
-        <v>34679</v>
-      </c>
-      <c r="B575" t="s">
+      <c r="E584" s="15"/>
+      <c r="H584" s="15"/>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A585">
+        <v>26164</v>
+      </c>
+      <c r="B585" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A576">
-        <v>68917</v>
-      </c>
-      <c r="B576" t="s">
+      <c r="E585" s="15">
+        <v>0.789879</v>
+      </c>
+      <c r="F585" s="15">
+        <v>2.7129E-2</v>
+      </c>
+      <c r="G585" s="16">
+        <v>1.7961999999999999E-2</v>
+      </c>
+      <c r="H585" s="15">
+        <v>0.16023499999999999</v>
+      </c>
+      <c r="M585" s="19">
+        <v>0.20208333333333331</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A586">
+        <v>184541</v>
+      </c>
+      <c r="B586" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577">
-        <v>101245</v>
-      </c>
-      <c r="B577" t="s">
+      <c r="E586" s="15">
+        <v>0.41208099999999998</v>
+      </c>
+      <c r="F586" s="15">
+        <v>1.089E-2</v>
+      </c>
+      <c r="G586" s="16">
+        <v>1.0588E-2</v>
+      </c>
+      <c r="H586" s="15">
+        <v>0.23796300000000001</v>
+      </c>
+      <c r="M586" s="21" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B587" t="s">
         <v>570</v>
       </c>
+      <c r="E587" s="15"/>
+      <c r="H587" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/Screens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442E72E6-7619-FA44-9890-2AAC8618E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901A208-50E6-4084-BE12-6F39EA7EB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43200" yWindow="-780" windowWidth="21600" windowHeight="20420" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-41820" yWindow="1080" windowWidth="40590" windowHeight="18855" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2431,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2489,9 +2489,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2833,33 +2830,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA33316-214D-4B4A-B004-8F085269D09A}">
   <dimension ref="A1:W587"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E167" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D168" sqref="D168"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
         <v>742</v>
       </c>
@@ -2872,12 +2871,12 @@
       <c r="H1" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>743</v>
       </c>
@@ -2899,7 +2898,7 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>45089</v>
       </c>
       <c r="L2" s="18">
@@ -2909,7 +2908,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2971,7 +2970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A59" si="0">A4+1</f>
         <v>3</v>
@@ -3001,7 +3000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3025,7 +3024,7 @@
         <v>50.16</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3052,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3082,7 +3081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3109,7 +3108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3146,7 +3145,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3191,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3239,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3284,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>A13+1</f>
         <v>12</v>
@@ -3320,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -3356,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3386,7 +3385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3413,7 +3412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3443,7 +3442,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3481,7 +3480,7 @@
       </c>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3519,7 +3518,7 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3559,7 +3558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3589,7 +3588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3616,7 +3615,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3643,7 +3642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3670,7 +3669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3697,7 +3696,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3724,7 +3723,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3751,7 +3750,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3778,7 +3777,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3805,7 +3804,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3832,7 +3831,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>T19+1</f>
         <v>31</v>
@@ -3859,7 +3858,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3886,7 +3885,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3913,7 +3912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3940,7 +3939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3967,7 +3966,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3994,7 +3993,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4021,7 +4020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4045,7 +4044,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>T20+1</f>
         <v>40</v>
@@ -4069,7 +4068,7 @@
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4093,7 +4092,7 @@
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4117,7 +4116,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4141,7 +4140,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4156,7 +4155,7 @@
         <v>171400</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4171,7 +4170,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4186,7 +4185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4201,7 +4200,7 @@
         <v>392730</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4216,7 +4215,7 @@
         <v>70570</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4231,7 +4230,7 @@
         <v>167830</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4246,7 +4245,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4261,7 +4260,7 @@
         <v>119540</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4270,7 +4269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4285,7 +4284,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4300,7 +4299,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4315,7 +4314,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4330,7 +4329,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4345,7 +4344,7 @@
         <v>73170</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4360,7 +4359,7 @@
         <v>145640</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4375,7 +4374,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ref="A60:A121" si="1">A59+1</f>
         <v>60</v>
@@ -4390,7 +4389,7 @@
         <v>27530</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4405,7 +4404,7 @@
         <v>167900</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4420,7 +4419,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4435,7 +4434,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4450,7 +4449,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4465,7 +4464,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4480,7 +4479,7 @@
         <v>121240</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>T21+1</f>
         <v>68</v>
@@ -4492,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4501,7 +4500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4510,7 +4509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4528,7 +4527,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4543,7 +4542,7 @@
         <v>140670</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4558,7 +4557,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4573,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4588,7 +4587,7 @@
         <v>32970</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4603,7 +4602,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4618,7 +4617,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4645,7 +4644,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4660,7 +4659,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4675,7 +4674,7 @@
         <v>215690</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4690,7 +4689,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4705,7 +4704,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4720,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4735,7 +4734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4750,7 +4749,7 @@
         <v>121750</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4765,7 +4764,7 @@
         <v>17970</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4780,7 +4779,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4813,7 +4812,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4828,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4843,7 +4842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4858,7 +4857,7 @@
         <v>12330</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4873,7 +4872,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4888,7 +4887,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4903,7 +4902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4918,7 +4917,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4933,7 +4932,7 @@
         <v>15680</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4948,7 +4947,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4963,7 +4962,7 @@
         <v>84130</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4978,7 +4977,7 @@
         <v>30480</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4993,7 +4992,7 @@
         <v>191320</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5008,7 +5007,7 @@
         <v>85900</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5023,7 +5022,7 @@
         <v>223550</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5038,7 +5037,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5053,7 +5052,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5068,7 +5067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5083,7 +5082,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5098,7 +5097,7 @@
         <v>66340</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5128,7 +5127,7 @@
         <v>5.347222222222222E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5143,7 +5142,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5158,7 +5157,7 @@
         <v>87920</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5173,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5188,7 +5187,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5203,7 +5202,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5218,7 +5217,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5233,7 +5232,7 @@
         <v>97170</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5248,7 +5247,7 @@
         <v>153870</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5263,7 +5262,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5278,7 +5277,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5308,7 +5307,7 @@
         <v>0.11041666666666666</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5323,7 +5322,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5338,7 +5337,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5353,7 +5352,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" ref="A122:A186" si="2">A121+1</f>
         <v>123</v>
@@ -5368,7 +5367,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -5395,7 +5394,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -5410,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -5425,7 +5424,7 @@
         <v>197580</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -5440,7 +5439,7 @@
         <v>87890</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -5455,7 +5454,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -5470,7 +5469,7 @@
         <v>25590</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -5485,7 +5484,7 @@
         <v>119970</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5500,7 +5499,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5515,7 +5514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5524,7 +5523,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5539,7 +5538,7 @@
         <v>109950</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5554,7 +5553,7 @@
         <v>184760</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5569,7 +5568,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5599,7 +5598,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5614,7 +5613,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5623,7 +5622,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5635,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5650,7 +5649,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5674,7 +5673,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5683,7 +5682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5713,7 +5712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5722,7 +5721,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5737,7 +5736,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5746,7 +5745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5770,7 +5769,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5779,7 +5778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5794,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5809,7 +5808,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5824,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5833,7 +5832,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5842,7 +5841,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5878,7 +5877,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5887,7 +5886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5896,7 +5895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5911,7 +5910,7 @@
         <v>10590</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5920,7 +5919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5935,7 +5934,7 @@
         <v>88480</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5950,7 +5949,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5965,7 +5964,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5974,7 +5973,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5989,7 +5988,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6004,7 +6003,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6035,7 +6034,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6050,7 +6049,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6065,7 +6064,7 @@
         <v>158030</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6074,7 +6073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6089,7 +6088,7 @@
         <v>26810</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6104,7 +6103,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6119,7 +6118,7 @@
         <v>10830</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6149,7 +6148,7 @@
         <v>0.64861111111111114</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6179,7 +6178,7 @@
         <v>0.1173611111111111</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6194,7 +6193,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6209,7 +6208,7 @@
         <v>33830</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6224,7 +6223,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6239,7 +6238,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6254,7 +6253,7 @@
         <v>50480</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6269,7 +6268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6284,7 +6283,7 @@
         <v>10870</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6299,7 +6298,7 @@
         <v>13940</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6314,7 +6313,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6329,7 +6328,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6338,7 +6337,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6370,7 +6369,7 @@
       <c r="J185" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K185" s="27">
+      <c r="K185" s="26">
         <v>223.9</v>
       </c>
       <c r="L185">
@@ -6380,7 +6379,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6389,7 +6388,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" ref="A187:A247" si="3">A186+1</f>
         <v>188</v>
@@ -6398,7 +6397,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6407,7 +6406,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6416,7 +6415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>169</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -6448,7 +6447,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -6457,7 +6456,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -6466,7 +6465,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -6475,7 +6474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -6484,7 +6483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -6496,7 +6495,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>176</v>
@@ -6505,7 +6504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>177</v>
@@ -6514,7 +6513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>178</v>
@@ -6523,7 +6522,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>179</v>
@@ -6532,7 +6531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -6541,7 +6540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -6553,7 +6552,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -6562,7 +6561,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -6571,7 +6570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -6580,7 +6579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -6592,7 +6591,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -6601,7 +6600,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -6610,7 +6609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -6619,7 +6618,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6628,7 +6627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6637,7 +6636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -6646,7 +6645,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -6655,7 +6654,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -6664,7 +6663,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -6673,7 +6672,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6685,7 +6684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6694,7 +6693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6703,7 +6702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6712,7 +6711,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6727,7 +6726,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6736,7 +6735,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6751,7 +6750,7 @@
         <v>10340</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6760,7 +6759,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6769,7 +6768,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6778,7 +6777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6787,7 +6786,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6796,7 +6795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6805,7 +6804,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6814,7 +6813,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6823,7 +6822,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6832,7 +6831,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6841,7 +6840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6850,7 +6849,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6859,7 +6858,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6868,7 +6867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6877,7 +6876,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6889,7 +6888,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6898,7 +6897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6907,7 +6906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6916,7 +6915,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6928,7 +6927,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6937,7 +6936,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6946,7 +6945,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6955,7 +6954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6964,7 +6963,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6973,7 +6972,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6982,7 +6981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" ref="A248:A307" si="4">A247+1</f>
         <v>227</v>
@@ -6991,7 +6990,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -7000,7 +6999,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -7009,7 +7008,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -7021,7 +7020,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -7030,7 +7029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -7045,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -7054,7 +7053,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -7063,7 +7062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -7072,7 +7071,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -7081,7 +7080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -7090,7 +7089,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -7099,7 +7098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -7108,7 +7107,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -7123,7 +7122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -7132,7 +7131,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>244</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>0.18055555555555555</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>245</v>
@@ -7164,7 +7163,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>246</v>
@@ -7173,7 +7172,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>247</v>
@@ -7185,7 +7184,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>248</v>
@@ -7194,7 +7193,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>249</v>
@@ -7203,7 +7202,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>250</v>
@@ -7212,7 +7211,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>251</v>
@@ -7221,7 +7220,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>252</v>
@@ -7230,7 +7229,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>253</v>
@@ -7239,7 +7238,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>254</v>
@@ -7248,7 +7247,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>255</v>
@@ -7257,7 +7256,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>256</v>
@@ -7266,7 +7265,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>257</v>
@@ -7275,7 +7274,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>258</v>
@@ -7284,7 +7283,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7296,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7305,7 +7304,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7314,7 +7313,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7323,7 +7322,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7332,7 +7331,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7341,7 +7340,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7356,7 +7355,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7368,7 +7367,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7377,7 +7376,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7386,7 +7385,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7395,7 +7394,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7404,7 +7403,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7413,7 +7412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7425,7 +7424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7434,7 +7433,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7443,7 +7442,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7452,7 +7451,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7467,7 +7466,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7482,7 +7481,7 @@
         <v>49790</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7497,7 +7496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7509,7 +7508,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7518,7 +7517,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7530,7 +7529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7539,7 +7538,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7548,7 +7547,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7557,7 +7556,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7566,7 +7565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7578,7 +7577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7593,7 +7592,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7602,7 +7601,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <f t="shared" ref="A308:A369" si="5">A307+1</f>
         <v>289</v>
@@ -7614,7 +7613,7 @@
         <v>84.53</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <f t="shared" si="5"/>
         <v>290</v>
@@ -7626,7 +7625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <f t="shared" si="5"/>
         <v>291</v>
@@ -7635,7 +7634,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -7644,7 +7643,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>317</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <f>A311+1</f>
         <v>293</v>
@@ -7664,7 +7663,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <f t="shared" si="5"/>
         <v>294</v>
@@ -7676,7 +7675,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <f t="shared" si="5"/>
         <v>295</v>
@@ -7685,7 +7684,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <f t="shared" si="5"/>
         <v>296</v>
@@ -7694,7 +7693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <f t="shared" si="5"/>
         <v>297</v>
@@ -7703,7 +7702,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <f t="shared" si="5"/>
         <v>298</v>
@@ -7712,7 +7711,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <f t="shared" si="5"/>
         <v>299</v>
@@ -7721,7 +7720,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <f t="shared" si="5"/>
         <v>300</v>
@@ -7730,7 +7729,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <f t="shared" si="5"/>
         <v>301</v>
@@ -7739,7 +7738,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <f t="shared" si="5"/>
         <v>302</v>
@@ -7748,7 +7747,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <f t="shared" si="5"/>
         <v>303</v>
@@ -7757,7 +7756,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <f t="shared" si="5"/>
         <v>304</v>
@@ -7766,7 +7765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>305</v>
@@ -7775,7 +7774,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>306</v>
@@ -7784,7 +7783,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>307</v>
@@ -7799,7 +7798,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -7811,7 +7810,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>309</v>
@@ -7820,7 +7819,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>372</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>0.10555555555555556</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -7858,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -7867,7 +7866,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -7876,7 +7875,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -7885,7 +7884,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -7894,7 +7893,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -7903,7 +7902,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -7912,7 +7911,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -7921,7 +7920,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -7930,7 +7929,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -7939,7 +7938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -7948,7 +7947,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -7963,7 +7962,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -7972,7 +7971,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -7981,7 +7980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>387</v>
@@ -7990,7 +7989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>388</v>
@@ -7999,7 +7998,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>389</v>
@@ -8008,7 +8007,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>390</v>
@@ -8017,7 +8016,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>391</v>
@@ -8029,7 +8028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>392</v>
@@ -8038,7 +8037,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>393</v>
@@ -8047,7 +8046,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>394</v>
@@ -8056,7 +8055,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>395</v>
@@ -8065,7 +8064,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>396</v>
@@ -8074,7 +8073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>397</v>
@@ -8083,7 +8082,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>398</v>
@@ -8092,7 +8091,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>399</v>
@@ -8101,7 +8100,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -8110,7 +8109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>401</v>
@@ -8119,7 +8118,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>402</v>
@@ -8134,7 +8133,7 @@
         <v>77190</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>403</v>
@@ -8143,7 +8142,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>404</v>
@@ -8152,7 +8151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>405</v>
@@ -8161,7 +8160,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>406</v>
@@ -8173,7 +8172,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>407</v>
@@ -8182,7 +8181,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>408</v>
@@ -8191,7 +8190,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>409</v>
@@ -8200,7 +8199,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>410</v>
@@ -8209,7 +8208,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>411</v>
@@ -8218,7 +8217,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <f t="shared" ref="A370:A430" si="6">A369+1</f>
         <v>412</v>
@@ -8227,7 +8226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -8236,7 +8235,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -8251,7 +8250,7 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -8260,7 +8259,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -8269,7 +8268,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -8278,7 +8277,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -8287,7 +8286,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -8296,7 +8295,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -8305,7 +8304,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -8314,7 +8313,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -8323,7 +8322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -8332,7 +8331,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -8341,7 +8340,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -8350,7 +8349,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -8359,7 +8358,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -8368,7 +8367,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -8377,7 +8376,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -8386,7 +8385,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -8395,7 +8394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -8404,7 +8403,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -8413,7 +8412,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -8422,7 +8421,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -8431,7 +8430,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -8440,7 +8439,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -8452,7 +8451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -8461,7 +8460,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -8473,7 +8472,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -8482,7 +8481,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -8491,7 +8490,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -8500,7 +8499,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -8509,7 +8508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -8521,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -8530,7 +8529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -8539,7 +8538,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -8548,7 +8547,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -8560,7 +8559,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -8572,7 +8571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -8581,7 +8580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -8590,7 +8589,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>451</v>
@@ -8602,7 +8601,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>452</v>
@@ -8611,7 +8610,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>453</v>
@@ -8620,7 +8619,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>454</v>
@@ -8629,7 +8628,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>455</v>
@@ -8638,7 +8637,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>456</v>
@@ -8647,7 +8646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>457</v>
@@ -8656,7 +8655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>458</v>
@@ -8665,7 +8664,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>459</v>
@@ -8677,7 +8676,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>460</v>
@@ -8686,7 +8685,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>461</v>
@@ -8695,7 +8694,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>462</v>
@@ -8704,7 +8703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>463</v>
@@ -8713,7 +8712,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>464</v>
@@ -8722,7 +8721,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>465</v>
@@ -8731,7 +8730,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>466</v>
@@ -8746,7 +8745,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>467</v>
@@ -8755,7 +8754,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>468</v>
@@ -8764,7 +8763,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>469</v>
@@ -8773,7 +8772,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>470</v>
@@ -8785,7 +8784,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>471</v>
@@ -8800,7 +8799,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>472</v>
@@ -8809,7 +8808,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <f t="shared" ref="A431:A469" si="7">A430+1</f>
         <v>473</v>
@@ -8821,7 +8820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -8830,7 +8829,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -8839,7 +8838,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -8848,7 +8847,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -8857,7 +8856,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -8866,7 +8865,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -8875,7 +8874,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -8884,7 +8883,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -8893,7 +8892,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -8902,7 +8901,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -8911,7 +8910,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -8920,7 +8919,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -8935,7 +8934,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -8944,7 +8943,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -8953,7 +8952,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -8962,7 +8961,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -8974,7 +8973,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -8983,7 +8982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -8992,7 +8991,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -9001,7 +9000,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -9010,7 +9009,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -9019,7 +9018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -9028,7 +9027,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -9037,7 +9036,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -9046,7 +9045,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -9055,7 +9054,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -9070,7 +9069,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -9079,7 +9078,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -9088,7 +9087,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -9097,7 +9096,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -9106,7 +9105,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -9115,7 +9114,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -9127,7 +9126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>469</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <f>A463+1</f>
         <v>506</v>
@@ -9147,7 +9146,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -9156,7 +9155,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -9168,7 +9167,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -9177,7 +9176,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -9186,7 +9185,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>489</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>517</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>537</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>557</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>587</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>601</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>625</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>668</v>
       </c>
@@ -9289,7 +9288,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>691</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>707</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>720</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>729</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>737</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>745</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>784</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>804</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>852</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>855</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>903</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>946</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>1004</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>1017</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1020</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1057</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1058</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>1063</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1069</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>1125</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1180</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1256</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1315</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1334</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1353</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1369</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1385</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1413</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1442</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1448</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>7.6420000000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1452</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1472</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1370</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1551</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1609</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1611</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1633</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>1880</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1652</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1655</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1669</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1727</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1804</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1829</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1890</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2015</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2042</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2079</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>12.233000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>754</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2104</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2160</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>0.16041666666666668</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2226</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>4.218</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2236</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2300</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2349</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2463</v>
       </c>
@@ -10023,7 +10022,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2466</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2628</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2738</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>4.9560000000000004</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2843</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2870</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>4.1989999999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>3042</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2912</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>6.2709999999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2917</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>3107</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>3330</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>3616</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>3637</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3747</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>5.5439999999999996</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3791</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>3955</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4009</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>4091</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>5084</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>4509</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>8.8710000000000004</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>4999</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>6.782</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>5033</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>6.0430000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>5074</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>5508</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>5820</v>
       </c>
@@ -10340,7 +10339,7 @@
       <c r="K557" s="9"/>
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>5863</v>
       </c>
@@ -10363,7 +10362,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>5998</v>
       </c>
@@ -10376,7 +10375,7 @@
       <c r="H559" s="15"/>
       <c r="M559" s="3"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>6316</v>
       </c>
@@ -10389,7 +10388,7 @@
       <c r="F560" s="15">
         <v>0.42543599999999998</v>
       </c>
-      <c r="G560" s="25">
+      <c r="G560" s="15">
         <v>0.29056500000000002</v>
       </c>
       <c r="H560" s="15">
@@ -10399,7 +10398,7 @@
         <v>0.11666666666666665</v>
       </c>
     </row>
-    <row r="561" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>6614</v>
       </c>
@@ -10420,7 +10419,7 @@
       <c r="L561"/>
       <c r="M561"/>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>6758</v>
       </c>
@@ -10430,7 +10429,7 @@
       <c r="E562" s="15"/>
       <c r="H562" s="15"/>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>7588</v>
       </c>
@@ -10442,7 +10441,7 @@
       </c>
       <c r="H563" s="15"/>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>7610</v>
       </c>
@@ -10454,7 +10453,7 @@
       </c>
       <c r="H564" s="15"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>7649</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>8340</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>9045</v>
       </c>
@@ -10512,7 +10511,7 @@
       </c>
       <c r="H567" s="15"/>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>9655</v>
       </c>
@@ -10524,7 +10523,7 @@
       </c>
       <c r="H568" s="15"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>9935</v>
       </c>
@@ -10536,7 +10535,7 @@
       </c>
       <c r="H569" s="15"/>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>9194</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>11140</v>
       </c>
@@ -10569,7 +10568,7 @@
       <c r="E571" s="15"/>
       <c r="H571" s="15"/>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>11657</v>
       </c>
@@ -10581,7 +10580,7 @@
       </c>
       <c r="H572" s="15"/>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>14219</v>
       </c>
@@ -10593,7 +10592,7 @@
       </c>
       <c r="H573" s="15"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>14684</v>
       </c>
@@ -10605,7 +10604,7 @@
       </c>
       <c r="H574" s="15"/>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>15418</v>
       </c>
@@ -10617,7 +10616,7 @@
       </c>
       <c r="H575" s="15"/>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>15739</v>
       </c>
@@ -10629,7 +10628,7 @@
       </c>
       <c r="H576" s="15"/>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>17811</v>
       </c>
@@ -10641,7 +10640,7 @@
       </c>
       <c r="H577" s="15"/>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>20331</v>
       </c>
@@ -10651,7 +10650,7 @@
       <c r="E578" s="15"/>
       <c r="H578" s="15"/>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>20744</v>
       </c>
@@ -10663,7 +10662,7 @@
       </c>
       <c r="H579" s="15"/>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>21671</v>
       </c>
@@ -10675,7 +10674,7 @@
       </c>
       <c r="H580" s="15"/>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>25457</v>
       </c>
@@ -10687,7 +10686,7 @@
       </c>
       <c r="H581" s="15"/>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>26530</v>
       </c>
@@ -10699,7 +10698,7 @@
       </c>
       <c r="H582" s="15"/>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>29678</v>
       </c>
@@ -10711,7 +10710,7 @@
       </c>
       <c r="H583" s="15"/>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>33173</v>
       </c>
@@ -10721,7 +10720,7 @@
       <c r="E584" s="15"/>
       <c r="H584" s="15"/>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>26164</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>0.20208333333333331</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>184541</v>
       </c>
@@ -10767,7 +10766,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B587" t="s">
         <v>570</v>
       </c>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901A208-50E6-4084-BE12-6F39EA7EB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4DEDB9-C22F-D24D-9458-E586137411A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41820" yWindow="1080" windowWidth="40590" windowHeight="18855" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-42700" yWindow="-8800" windowWidth="21600" windowHeight="18860" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2831,34 +2831,34 @@
   <dimension ref="A1:W587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E1" s="2" t="s">
         <v>742</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="L1" s="27"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D2" s="2" t="s">
         <v>743</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2970,7 +2970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A59" si="0">A4+1</f>
         <v>3</v>
@@ -3000,7 +3000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3024,7 +3024,7 @@
         <v>50.16</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3051,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3081,7 +3081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3108,7 +3108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3145,7 +3145,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>A13+1</f>
         <v>12</v>
@@ -3319,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>A14+1</f>
         <v>13</v>
@@ -3355,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3385,7 +3385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3412,7 +3412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3442,7 +3442,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="W19" s="12"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3588,7 +3588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3615,7 +3615,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3642,7 +3642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3669,7 +3669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3696,7 +3696,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3723,7 +3723,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3750,7 +3750,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3777,7 +3777,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3804,7 +3804,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3831,7 +3831,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32">
         <f>T19+1</f>
         <v>31</v>
@@ -3858,7 +3858,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3885,7 +3885,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3912,7 +3912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3939,7 +3939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3966,7 +3966,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3993,7 +3993,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4020,7 +4020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4044,7 +4044,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40">
         <f>T20+1</f>
         <v>40</v>
@@ -4068,7 +4068,7 @@
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4092,7 +4092,7 @@
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4116,7 +4116,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4140,7 +4140,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4155,7 +4155,7 @@
         <v>171400</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4170,7 +4170,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4185,7 +4185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4200,7 +4200,7 @@
         <v>392730</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4215,7 +4215,7 @@
         <v>70570</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4230,7 +4230,7 @@
         <v>167830</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4245,7 +4245,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4260,7 +4260,7 @@
         <v>119540</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4269,7 +4269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4284,7 +4284,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4299,7 +4299,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4314,7 +4314,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4329,7 +4329,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4344,7 +4344,7 @@
         <v>73170</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4359,7 +4359,7 @@
         <v>145640</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4374,7 +4374,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" ref="A60:A121" si="1">A59+1</f>
         <v>60</v>
@@ -4389,7 +4389,7 @@
         <v>27530</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4404,7 +4404,7 @@
         <v>167900</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4419,7 +4419,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4434,7 +4434,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4449,7 +4449,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4464,7 +4464,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4479,7 +4479,7 @@
         <v>121240</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
         <f>T21+1</f>
         <v>68</v>
@@ -4491,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4500,7 +4500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4509,7 +4509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4527,7 +4527,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4542,7 +4542,7 @@
         <v>140670</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4557,7 +4557,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4587,7 +4587,7 @@
         <v>32970</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4602,7 +4602,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4617,7 +4617,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4644,7 +4644,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4659,7 +4659,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4674,7 +4674,7 @@
         <v>215690</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4689,7 +4689,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4704,7 +4704,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4734,7 +4734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4749,7 +4749,7 @@
         <v>121750</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4764,7 +4764,7 @@
         <v>17970</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4779,7 +4779,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4812,7 +4812,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4842,7 +4842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4857,7 +4857,7 @@
         <v>12330</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4872,7 +4872,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4887,7 +4887,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4902,7 +4902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4917,7 +4917,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4932,7 +4932,7 @@
         <v>15680</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4947,7 +4947,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4962,7 +4962,7 @@
         <v>84130</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4977,7 +4977,7 @@
         <v>30480</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4992,7 +4992,7 @@
         <v>191320</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5007,7 +5007,7 @@
         <v>85900</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5022,7 +5022,7 @@
         <v>223550</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5037,7 +5037,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5052,7 +5052,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5067,7 +5067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5082,7 +5082,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5097,7 +5097,7 @@
         <v>66340</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5127,7 +5127,7 @@
         <v>5.347222222222222E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5142,7 +5142,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5157,7 +5157,7 @@
         <v>87920</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5187,7 +5187,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5202,7 +5202,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5217,7 +5217,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5232,7 +5232,7 @@
         <v>97170</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5247,7 +5247,7 @@
         <v>153870</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5262,7 +5262,7 @@
         <v>167630</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5277,7 +5277,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5307,7 +5307,7 @@
         <v>0.11041666666666666</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5322,7 +5322,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5337,7 +5337,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5352,7 +5352,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122">
         <f t="shared" ref="A122:A186" si="2">A121+1</f>
         <v>123</v>
@@ -5367,7 +5367,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -5394,7 +5394,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -5424,7 +5424,7 @@
         <v>197580</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -5439,7 +5439,7 @@
         <v>87890</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -5454,7 +5454,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -5469,7 +5469,7 @@
         <v>25590</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -5484,7 +5484,7 @@
         <v>119970</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5499,7 +5499,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5514,7 +5514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5523,7 +5523,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5538,7 +5538,7 @@
         <v>109950</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5553,7 +5553,7 @@
         <v>184760</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5568,7 +5568,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5598,7 +5598,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5613,7 +5613,7 @@
         <v>168050</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5622,7 +5622,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5634,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5649,7 +5649,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5673,7 +5673,7 @@
         <v>0.12569444444444444</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5682,7 +5682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5712,7 +5712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5721,7 +5721,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5736,7 +5736,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5745,7 +5745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5769,7 +5769,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5778,7 +5778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5808,7 +5808,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5832,7 +5832,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5841,7 +5841,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5877,7 +5877,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5886,7 +5886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5895,7 +5895,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5910,7 +5910,7 @@
         <v>10590</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5919,7 +5919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5934,7 +5934,7 @@
         <v>88480</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5949,7 +5949,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5964,7 +5964,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5973,7 +5973,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5988,7 +5988,7 @@
         <v>9150</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6003,7 +6003,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6034,7 +6034,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6049,7 +6049,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6064,7 +6064,7 @@
         <v>158030</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6073,7 +6073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6088,7 +6088,7 @@
         <v>26810</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6103,7 +6103,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6118,7 +6118,7 @@
         <v>10830</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6148,7 +6148,7 @@
         <v>0.64861111111111114</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6178,7 +6178,7 @@
         <v>0.1173611111111111</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6193,7 +6193,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6208,7 +6208,7 @@
         <v>33830</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6223,7 +6223,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6238,7 +6238,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6253,7 +6253,7 @@
         <v>50480</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6268,7 +6268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6283,7 +6283,7 @@
         <v>10870</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6298,7 +6298,7 @@
         <v>13940</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6313,7 +6313,7 @@
         <v>135900</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6328,7 +6328,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6337,7 +6337,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6379,7 +6379,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6388,7 +6388,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187">
         <f t="shared" ref="A187:A247" si="3">A186+1</f>
         <v>188</v>
@@ -6397,7 +6397,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6406,7 +6406,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6415,7 +6415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>169</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -6447,7 +6447,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -6456,7 +6456,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -6465,7 +6465,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -6474,7 +6474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -6483,7 +6483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -6495,7 +6495,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>176</v>
@@ -6504,7 +6504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>177</v>
@@ -6513,7 +6513,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>178</v>
@@ -6522,7 +6522,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>179</v>
@@ -6531,7 +6531,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -6540,7 +6540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -6552,7 +6552,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -6561,7 +6561,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -6570,7 +6570,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -6579,7 +6579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -6591,7 +6591,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -6600,7 +6600,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -6609,7 +6609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -6618,7 +6618,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -6627,7 +6627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -6636,7 +6636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -6645,7 +6645,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -6654,7 +6654,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -6663,7 +6663,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -6672,7 +6672,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6684,7 +6684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6693,7 +6693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6702,7 +6702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6711,7 +6711,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6726,7 +6726,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6735,7 +6735,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6750,7 +6750,7 @@
         <v>10340</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6759,7 +6759,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6768,7 +6768,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6777,7 +6777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6786,7 +6786,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6795,7 +6795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6804,7 +6804,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6813,7 +6813,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6822,7 +6822,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6831,7 +6831,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6840,7 +6840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6849,7 +6849,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6858,7 +6858,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6867,7 +6867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6876,7 +6876,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6888,7 +6888,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6897,7 +6897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6906,7 +6906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6915,7 +6915,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6927,7 +6927,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6936,7 +6936,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6945,7 +6945,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6954,7 +6954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6963,7 +6963,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6972,7 +6972,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6981,7 +6981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248">
         <f t="shared" ref="A248:A307" si="4">A247+1</f>
         <v>227</v>
@@ -6990,7 +6990,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -6999,7 +6999,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -7008,7 +7008,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -7020,7 +7020,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -7029,7 +7029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -7053,7 +7053,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -7062,7 +7062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -7071,7 +7071,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -7080,7 +7080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -7089,7 +7089,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -7098,7 +7098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -7107,7 +7107,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -7122,7 +7122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -7131,7 +7131,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>244</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>0.18055555555555555</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>245</v>
@@ -7163,7 +7163,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>246</v>
@@ -7172,7 +7172,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>247</v>
@@ -7184,7 +7184,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>248</v>
@@ -7193,7 +7193,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>249</v>
@@ -7202,7 +7202,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>250</v>
@@ -7211,7 +7211,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>251</v>
@@ -7220,7 +7220,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>252</v>
@@ -7229,7 +7229,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>253</v>
@@ -7238,7 +7238,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>254</v>
@@ -7247,7 +7247,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>255</v>
@@ -7256,7 +7256,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>256</v>
@@ -7265,7 +7265,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>257</v>
@@ -7274,7 +7274,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>258</v>
@@ -7283,7 +7283,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7304,7 +7304,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7313,7 +7313,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7322,7 +7322,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7331,7 +7331,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7340,7 +7340,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7355,7 +7355,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7367,7 +7367,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7376,7 +7376,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7385,7 +7385,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7394,7 +7394,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7403,7 +7403,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7412,7 +7412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7424,7 +7424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7433,7 +7433,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7442,7 +7442,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7451,7 +7451,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7466,7 +7466,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7481,7 +7481,7 @@
         <v>49790</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7496,7 +7496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7508,7 +7508,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7517,7 +7517,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7529,7 +7529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7538,7 +7538,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7547,7 +7547,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7556,7 +7556,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7565,7 +7565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7577,7 +7577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7592,7 +7592,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7601,7 +7601,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308">
         <f t="shared" ref="A308:A369" si="5">A307+1</f>
         <v>289</v>
@@ -7613,7 +7613,7 @@
         <v>84.53</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309">
         <f t="shared" si="5"/>
         <v>290</v>
@@ -7625,7 +7625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310">
         <f t="shared" si="5"/>
         <v>291</v>
@@ -7634,7 +7634,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311">
         <f t="shared" si="5"/>
         <v>292</v>
@@ -7643,7 +7643,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>317</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313">
         <f>A311+1</f>
         <v>293</v>
@@ -7663,7 +7663,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314">
         <f t="shared" si="5"/>
         <v>294</v>
@@ -7675,7 +7675,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315">
         <f t="shared" si="5"/>
         <v>295</v>
@@ -7684,7 +7684,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316">
         <f t="shared" si="5"/>
         <v>296</v>
@@ -7693,7 +7693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317">
         <f t="shared" si="5"/>
         <v>297</v>
@@ -7702,7 +7702,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318">
         <f t="shared" si="5"/>
         <v>298</v>
@@ -7711,7 +7711,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319">
         <f t="shared" si="5"/>
         <v>299</v>
@@ -7720,7 +7720,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320">
         <f t="shared" si="5"/>
         <v>300</v>
@@ -7729,7 +7729,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A321">
         <f t="shared" si="5"/>
         <v>301</v>
@@ -7738,7 +7738,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A322">
         <f t="shared" si="5"/>
         <v>302</v>
@@ -7747,7 +7747,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A323">
         <f t="shared" si="5"/>
         <v>303</v>
@@ -7756,7 +7756,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A324">
         <f t="shared" si="5"/>
         <v>304</v>
@@ -7765,7 +7765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>305</v>
@@ -7774,7 +7774,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>306</v>
@@ -7783,7 +7783,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>307</v>
@@ -7798,7 +7798,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>308</v>
@@ -7810,7 +7810,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>309</v>
@@ -7819,7 +7819,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>372</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>0.10555555555555556</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -7866,7 +7866,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -7875,7 +7875,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -7884,7 +7884,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -7893,7 +7893,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -7902,7 +7902,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -7911,7 +7911,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -7920,7 +7920,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -7929,7 +7929,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -7938,7 +7938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -7947,7 +7947,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -7962,7 +7962,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -7971,7 +7971,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -7980,7 +7980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>387</v>
@@ -7989,7 +7989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>388</v>
@@ -7998,7 +7998,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>389</v>
@@ -8007,7 +8007,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>390</v>
@@ -8016,7 +8016,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>391</v>
@@ -8028,7 +8028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>392</v>
@@ -8037,7 +8037,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>393</v>
@@ -8046,7 +8046,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>394</v>
@@ -8055,7 +8055,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>395</v>
@@ -8064,7 +8064,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>396</v>
@@ -8073,7 +8073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>397</v>
@@ -8082,7 +8082,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>398</v>
@@ -8091,7 +8091,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>399</v>
@@ -8100,7 +8100,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>400</v>
@@ -8109,7 +8109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>401</v>
@@ -8118,7 +8118,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>402</v>
@@ -8133,7 +8133,7 @@
         <v>77190</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>403</v>
@@ -8142,7 +8142,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>404</v>
@@ -8151,7 +8151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>405</v>
@@ -8160,7 +8160,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>406</v>
@@ -8172,7 +8172,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>407</v>
@@ -8181,7 +8181,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>408</v>
@@ -8190,7 +8190,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>409</v>
@@ -8199,7 +8199,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>410</v>
@@ -8208,7 +8208,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>411</v>
@@ -8217,7 +8217,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370">
         <f t="shared" ref="A370:A430" si="6">A369+1</f>
         <v>412</v>
@@ -8226,7 +8226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -8235,7 +8235,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -8250,7 +8250,7 @@
         <v>8040</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -8259,7 +8259,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -8268,7 +8268,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -8277,7 +8277,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -8286,7 +8286,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -8295,7 +8295,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -8304,7 +8304,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -8313,7 +8313,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -8322,7 +8322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -8331,7 +8331,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -8340,7 +8340,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -8349,7 +8349,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -8358,7 +8358,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -8367,7 +8367,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -8376,7 +8376,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -8385,7 +8385,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -8394,7 +8394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -8403,7 +8403,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -8412,7 +8412,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -8421,7 +8421,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -8430,7 +8430,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -8439,7 +8439,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -8451,7 +8451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -8460,7 +8460,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -8472,7 +8472,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -8481,7 +8481,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -8490,7 +8490,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -8499,7 +8499,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -8508,7 +8508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -8520,7 +8520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -8529,7 +8529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -8538,7 +8538,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -8547,7 +8547,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -8559,7 +8559,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -8571,7 +8571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -8580,7 +8580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -8589,7 +8589,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>451</v>
@@ -8601,7 +8601,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>452</v>
@@ -8610,7 +8610,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>453</v>
@@ -8619,7 +8619,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>454</v>
@@ -8628,7 +8628,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>455</v>
@@ -8637,7 +8637,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>456</v>
@@ -8646,7 +8646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>457</v>
@@ -8655,7 +8655,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>458</v>
@@ -8664,7 +8664,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>459</v>
@@ -8676,7 +8676,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>460</v>
@@ -8685,7 +8685,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>461</v>
@@ -8694,7 +8694,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>462</v>
@@ -8703,7 +8703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>463</v>
@@ -8712,7 +8712,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>464</v>
@@ -8721,7 +8721,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>465</v>
@@ -8730,7 +8730,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>466</v>
@@ -8745,7 +8745,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>467</v>
@@ -8754,7 +8754,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>468</v>
@@ -8763,7 +8763,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>469</v>
@@ -8772,7 +8772,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>470</v>
@@ -8784,7 +8784,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>471</v>
@@ -8799,7 +8799,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>472</v>
@@ -8808,7 +8808,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431">
         <f t="shared" ref="A431:A469" si="7">A430+1</f>
         <v>473</v>
@@ -8820,7 +8820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -8829,7 +8829,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -8838,7 +8838,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -8847,7 +8847,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -8856,7 +8856,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -8865,7 +8865,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -8874,7 +8874,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -8883,7 +8883,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -8892,7 +8892,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -8901,7 +8901,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -8910,7 +8910,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -8919,7 +8919,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -8934,7 +8934,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -8943,7 +8943,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -8952,7 +8952,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="3">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -8961,7 +8961,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -8973,7 +8973,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -8982,7 +8982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" s="3">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -8991,7 +8991,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A450">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -9000,7 +9000,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" s="3">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -9009,7 +9009,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A452">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -9018,7 +9018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -9027,7 +9027,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -9036,7 +9036,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -9045,7 +9045,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -9054,7 +9054,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -9069,7 +9069,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -9078,7 +9078,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -9087,7 +9087,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -9096,7 +9096,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -9105,7 +9105,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -9114,7 +9114,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -9126,7 +9126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>469</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465">
         <f>A463+1</f>
         <v>506</v>
@@ -9146,7 +9146,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -9155,7 +9155,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -9167,7 +9167,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -9176,7 +9176,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -9185,7 +9185,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>489</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>517</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>32.01</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>537</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>557</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>587</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>48.41</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>601</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>625</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>668</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>18.46</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>691</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>707</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>720</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>729</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>737</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>745</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>784</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>804</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>852</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>855</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>18.73</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>903</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>946</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>1004</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>1017</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>1020</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>1057</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>1058</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>1063</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>1069</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>1125</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>1180</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>1256</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>1315</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>1334</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>1353</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>1369</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>1385</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>1413</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>1442</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>1448</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>7.6420000000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>1452</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>1472</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>1370</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>1551</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>1609</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>1611</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>1633</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A515" s="3">
         <v>1880</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>1652</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>1655</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>1669</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>1727</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>1804</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>1829</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>1890</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>2015</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>2042</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>2079</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>12.233000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B526" t="s">
         <v>754</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>2104</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>2160</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>0.16041666666666668</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>2226</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>4.218</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>2236</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>2300</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>2349</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>2463</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>2466</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>2628</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>2738</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>4.9560000000000004</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>2843</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>2870</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>4.1989999999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>3042</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>2912</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>6.2709999999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>2917</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>3107</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>3330</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>3616</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>3637</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>3747</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>5.5439999999999996</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>3791</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>3955</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>4009</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>4091</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>5084</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>3.888888888888889E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>4509</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>8.8710000000000004</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>4999</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>6.782</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>5033</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>6.0430000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>5074</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>5508</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A557" s="3">
         <v>5820</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="K557" s="9"/>
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>5863</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>5998</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="H559" s="15"/>
       <c r="M559" s="3"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>6316</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0.11666666666666665</v>
       </c>
     </row>
-    <row r="561" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>6614</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="L561"/>
       <c r="M561"/>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>6758</v>
       </c>
@@ -10429,7 +10429,7 @@
       <c r="E562" s="15"/>
       <c r="H562" s="15"/>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>7588</v>
       </c>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="H563" s="15"/>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>7610</v>
       </c>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="H564" s="15"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>7649</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>8340</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>9045</v>
       </c>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H567" s="15"/>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>9655</v>
       </c>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="H568" s="15"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>9935</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="H569" s="15"/>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>9194</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>11140</v>
       </c>
@@ -10568,7 +10568,7 @@
       <c r="E571" s="15"/>
       <c r="H571" s="15"/>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>11657</v>
       </c>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="H572" s="15"/>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>14219</v>
       </c>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="H573" s="15"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>14684</v>
       </c>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="H574" s="15"/>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>15418</v>
       </c>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="H575" s="15"/>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>15739</v>
       </c>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="H576" s="15"/>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>17811</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="H577" s="15"/>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>20331</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="E578" s="15"/>
       <c r="H578" s="15"/>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>20744</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="H579" s="15"/>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>21671</v>
       </c>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="H580" s="15"/>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>25457</v>
       </c>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="H581" s="15"/>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>26530</v>
       </c>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="H582" s="15"/>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>29678</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
       <c r="H583" s="15"/>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>33173</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="E584" s="15"/>
       <c r="H584" s="15"/>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>26164</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0.20208333333333331</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>184541</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B587" t="s">
         <v>570</v>
       </c>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCD130D-2538-49F9-8111-2AA78AB3E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A0F82F-224C-4D99-9CA4-B15AC6CFE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="1050" windowWidth="31965" windowHeight="18945" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-52065" yWindow="1005" windowWidth="45705" windowHeight="19425" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3816,7 +3816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3934,13 +3934,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4271,13 +4272,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA33316-214D-4B4A-B004-8F085269D09A}">
-  <dimension ref="A1:AA1037"/>
+  <dimension ref="A1:AD1037"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4301,13 +4302,14 @@
     <col min="17" max="17" width="9.42578125" customWidth="1"/>
     <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
         <v>742</v>
       </c>
@@ -4320,12 +4322,12 @@
       <c r="J1" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="51" t="s">
         <v>746</v>
       </c>
-      <c r="Q1" s="49"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>772</v>
       </c>
@@ -4377,8 +4379,9 @@
       <c r="T2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4428,8 +4431,10 @@
       <c r="T3">
         <v>1998</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V3" s="8"/>
+      <c r="W3" s="52"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -4480,11 +4485,11 @@
       <c r="T4">
         <v>2005</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A71" si="0">A4+1</f>
         <v>3</v>
@@ -4535,8 +4540,10 @@
       <c r="T5">
         <v>2004</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V5" s="8"/>
+      <c r="W5" s="52"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -4584,7 +4591,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4634,8 +4641,10 @@
       <c r="T7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V7" s="8"/>
+      <c r="W7" s="52"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4727,8 +4736,10 @@
       <c r="T9">
         <v>1995</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V9" s="8"/>
+      <c r="W9" s="52"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>444</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -4820,11 +4831,13 @@
       <c r="T11">
         <v>2001</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="V11" s="8"/>
+      <c r="W11" s="52"/>
+      <c r="AA11" s="10" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -4871,17 +4884,17 @@
       <c r="T12">
         <v>2005</v>
       </c>
-      <c r="V12" s="1">
+      <c r="Y12" s="1">
         <v>1600</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>196</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AB12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -4931,17 +4944,17 @@
       <c r="T13">
         <v>2015</v>
       </c>
-      <c r="V13" s="1">
+      <c r="Y13" s="1">
         <v>2800</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>346</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AB13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -4991,14 +5004,14 @@
       <c r="T14">
         <v>2010</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AA14" t="s">
         <v>404</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AB14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -5047,7 +5060,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -5096,7 +5109,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>27</v>
       </c>
@@ -5139,7 +5152,7 @@
         <v>1820.5183333333332</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -5168,7 +5181,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>9</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -5226,7 +5239,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1024</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>24237</v>
       </c>
@@ -5284,7 +5297,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3282</v>
       </c>
@@ -5313,7 +5326,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>345</v>
       </c>
@@ -5342,7 +5355,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>15</v>
       </c>
@@ -5376,7 +5389,7 @@
         <v>2022.2650000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5410,11 +5423,11 @@
         <f>(3+(4/60))*O26</f>
         <v>1747.3866666666665</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="AA26" s="10" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5448,19 +5461,19 @@
         <f>(8+(58/60))*O27</f>
         <v>2918.65</v>
       </c>
-      <c r="X27" s="11">
+      <c r="AA27" s="11">
         <f>A43+1</f>
         <v>30</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="AB27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="AC27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AA27" s="12"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AD27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>20</v>
       </c>
@@ -5502,19 +5515,19 @@
       <c r="T28">
         <v>2005</v>
       </c>
-      <c r="X28" s="11">
+      <c r="AA28" s="11">
         <f>A51+1</f>
         <v>39</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AB28" t="s">
         <v>61</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AC28" t="s">
         <v>7</v>
       </c>
-      <c r="AA28" s="2"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -5550,18 +5563,18 @@
         <f>(8+(41/60))*O29</f>
         <v>6484.7133333333331</v>
       </c>
-      <c r="X29" s="11">
+      <c r="AA29" s="11">
         <f>A78+1</f>
         <v>67</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AB29" t="s">
         <v>92</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AC29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>1210</v>
       </c>
@@ -5570,9 +5583,9 @@
       <c r="O30" s="2"/>
       <c r="R30" s="19"/>
       <c r="S30" s="8"/>
-      <c r="X30" s="11"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA30" s="11"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>258</v>
       </c>
@@ -5581,9 +5594,9 @@
       <c r="O31" s="2"/>
       <c r="R31" s="19"/>
       <c r="S31" s="8"/>
-      <c r="X31" s="11"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA31" s="11"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>1211</v>
       </c>
@@ -5592,7 +5605,7 @@
       <c r="O32" s="2"/>
       <c r="R32" s="19"/>
       <c r="S32" s="8"/>
-      <c r="X32" s="11"/>
+      <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -5997,7 +6010,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <f>X27+1</f>
+        <f>AA27+1</f>
         <v>31</v>
       </c>
       <c r="D44" t="s">
@@ -6170,7 +6183,7 @@
         <v>3724.6533333333332</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6205,7 +6218,7 @@
         <v>739.26</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6240,7 +6253,7 @@
         <v>644.49</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6274,19 +6287,19 @@
         <f>(9+(5/60))*O51</f>
         <v>9101.5</v>
       </c>
-      <c r="X51" t="s">
+      <c r="AA51" t="s">
         <v>28</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="AB51" t="s">
         <v>6</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AC51" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <f>X28+1</f>
+        <f>AA28+1</f>
         <v>40</v>
       </c>
       <c r="D52" t="s">
@@ -6318,17 +6331,17 @@
         <f>(4+(53/60))*O52</f>
         <v>1016.7099999999998</v>
       </c>
-      <c r="X52" t="s">
+      <c r="AA52" t="s">
         <v>30</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="AB52" t="s">
         <v>6</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="AC52" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6362,17 +6375,17 @@
         <f>(11+(27/60))*O53</f>
         <v>2788.0749999999998</v>
       </c>
-      <c r="X53" t="s">
+      <c r="AA53" t="s">
         <v>33</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="AB53" t="s">
         <v>6</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="AC53" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>81</v>
       </c>
@@ -6409,21 +6422,21 @@
       <c r="R54" s="19">
         <v>0.18333333333333335</v>
       </c>
-      <c r="S54" s="50">
+      <c r="S54" s="49">
         <f>(4+(24/60))*O54</f>
         <v>6371.2000000000007</v>
       </c>
       <c r="T54">
         <v>2015</v>
       </c>
-      <c r="X54" t="s">
+      <c r="AA54" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="AB54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43</v>
       </c>
@@ -6456,14 +6469,14 @@
         <f>(3+(16/60))*O55</f>
         <v>1556.5666666666666</v>
       </c>
-      <c r="X55" t="s">
+      <c r="AA55" t="s">
         <v>62</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="AB55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44</v>
       </c>
@@ -6487,11 +6500,11 @@
         <f>(3+(26/60))*O56</f>
         <v>719.62666666666667</v>
       </c>
-      <c r="X56" t="s">
+      <c r="AA56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6516,11 +6529,11 @@
         <f>(7+(52/60))*O57</f>
         <v>1524.5600000000002</v>
       </c>
-      <c r="X57" t="s">
+      <c r="AA57" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6545,11 +6558,11 @@
         <f>(1+(53/60))*O58</f>
         <v>342.20166666666665</v>
       </c>
-      <c r="X58" t="s">
+      <c r="AA58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6574,11 +6587,11 @@
         <f>(6+(45/60))*O59</f>
         <v>1223.7750000000001</v>
       </c>
-      <c r="X59" t="s">
+      <c r="AA59" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6603,11 +6616,11 @@
         <f>(3+(38/60))*O60</f>
         <v>1507.8333333333333</v>
       </c>
-      <c r="X60" t="s">
+      <c r="AA60" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6632,11 +6645,11 @@
         <f>(11+(29/60))*O61</f>
         <v>1944.1283333333333</v>
       </c>
-      <c r="X61" t="s">
+      <c r="AA61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6663,11 +6676,11 @@
         <f>(4+(25/60))*O62</f>
         <v>3221.5166666666669</v>
       </c>
-      <c r="X62" t="s">
+      <c r="AA62" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6692,11 +6705,11 @@
         <f>(11+(49/60))*O63</f>
         <v>1322.2850000000001</v>
       </c>
-      <c r="X63" t="s">
+      <c r="AA63" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6715,11 +6728,11 @@
         <f>(16+(7/60))*O64</f>
         <v>5300.7716666666665</v>
       </c>
-      <c r="X64" t="s">
+      <c r="AA64" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6744,11 +6757,11 @@
         <f>(5+(16/60))*O65</f>
         <v>1562.0933333333335</v>
       </c>
-      <c r="X65" t="s">
+      <c r="AA65" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6773,11 +6786,11 @@
         <f>(2+(54/60))*O66</f>
         <v>479.37</v>
       </c>
-      <c r="X66" t="s">
+      <c r="AA66" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6802,11 +6815,11 @@
         <f>(3+(2/60))*O67</f>
         <v>492.31</v>
       </c>
-      <c r="X67" t="s">
+      <c r="AA67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6831,11 +6844,11 @@
         <f>(2+(35/60))*O68</f>
         <v>428.31666666666672</v>
       </c>
-      <c r="X68" t="s">
+      <c r="AA68" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6860,11 +6873,11 @@
         <f>(3+(52/60))*O69</f>
         <v>571.10666666666668</v>
       </c>
-      <c r="X69" t="s">
+      <c r="AA69" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6889,11 +6902,11 @@
         <f>(2+(59/60))*O70</f>
         <v>530.13833333333332</v>
       </c>
-      <c r="X70" t="s">
+      <c r="AA70" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6918,11 +6931,11 @@
         <f>(5+(41/60))*O71</f>
         <v>2081.8050000000003</v>
       </c>
-      <c r="X71" t="s">
+      <c r="AA71" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f t="shared" ref="A72:A133" si="1">A71+1</f>
         <v>60</v>
@@ -6947,11 +6960,11 @@
         <f>(8+(37/60))*O72</f>
         <v>3856.8200000000006</v>
       </c>
-      <c r="X72" t="s">
+      <c r="AA72" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6976,11 +6989,11 @@
         <f>(6+(49/60))*O73</f>
         <v>844.58500000000004</v>
       </c>
-      <c r="X73" t="s">
+      <c r="AA73" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7005,11 +7018,11 @@
         <f>(2+(44/60))*O74</f>
         <v>1139.5266666666666</v>
       </c>
-      <c r="X74" t="s">
+      <c r="AA74" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7034,11 +7047,11 @@
         <f>(5+(42/60))*O75</f>
         <v>756.96</v>
       </c>
-      <c r="X75" t="s">
+      <c r="AA75" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7063,11 +7076,11 @@
         <f>(4+(25/60))*O76</f>
         <v>909.39166666666677</v>
       </c>
-      <c r="X76" t="s">
+      <c r="AA76" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7092,11 +7105,11 @@
         <f>(2+(44/60))*O77</f>
         <v>388.95333333333338</v>
       </c>
-      <c r="X77" t="s">
+      <c r="AA77" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7121,13 +7134,13 @@
         <f>(4+(26/60))*O78</f>
         <v>575.44666666666672</v>
       </c>
-      <c r="X78" t="s">
+      <c r="AA78" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <f>X29+1</f>
+        <f>AA29+1</f>
         <v>68</v>
       </c>
       <c r="D79" t="s">
@@ -7148,7 +7161,7 @@
         <v>470.66</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -7168,7 +7181,7 @@
         <v>372.26666666666665</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -7188,7 +7201,7 @@
         <v>1550.9733333333334</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -7213,11 +7226,11 @@
         <f>(3+(13/60))*O82</f>
         <v>487.32500000000005</v>
       </c>
-      <c r="U82" t="s">
+      <c r="X82" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -7243,7 +7256,7 @@
         <v>653.41499999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -7269,7 +7282,7 @@
         <v>1753.4166666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -7295,7 +7308,7 @@
         <v>1098.22</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -7321,7 +7334,7 @@
         <v>601.88</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -7347,7 +7360,7 @@
         <v>291.04666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -7373,7 +7386,7 @@
         <v>555.1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7413,7 +7426,7 @@
         <v>851.52666666666664</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -7439,7 +7452,7 @@
         <v>277.43333333333334</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7465,7 +7478,7 @@
         <v>690.94</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7491,7 +7504,7 @@
         <v>553.5</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -7517,7 +7530,7 @@
         <v>453.25999999999993</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7543,7 +7556,7 @@
         <v>179.78749999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7569,7 +7582,7 @@
         <v>509.29666666666674</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -9494,7 +9507,7 @@
       <c r="O168" s="1">
         <v>82.44</v>
       </c>
-      <c r="R168" s="51">
+      <c r="R168" s="50">
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="S168" s="8">
@@ -10334,10 +10347,10 @@
       <c r="Q199">
         <v>228.2</v>
       </c>
-      <c r="R199" s="51" t="s">
+      <c r="R199" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="S199" s="50">
+      <c r="S199" s="49">
         <f>(29+(20/60))*O199</f>
         <v>5127.4666666666672</v>
       </c>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\Screens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9C049-C76B-401C-ACBC-E5F5201EB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4A957-7809-4344-9CB6-5D98BDCA8B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29925" yWindow="765" windowWidth="28440" windowHeight="19080" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-46590" yWindow="1605" windowWidth="25485" windowHeight="17730" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3765,9 +3765,6 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>Musk</t>
-  </si>
-  <si>
     <t>Porn</t>
   </si>
   <si>
@@ -3805,6 +3802,9 @@
   </si>
   <si>
     <t>VK</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3900,7 +3900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4050,12 +4050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4171,9 +4165,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Main!$Y$3:$Y$13</c:f>
+              <c:f>Main!$Y$3:$Y$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Google</c:v>
                 </c:pt>
@@ -4183,25 +4177,25 @@
                 <c:pt idx="2">
                   <c:v>Porn</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>X</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>Musk</c:v>
+                  <c:v>MSFT</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>MSFT</c:v>
+                  <c:v>AMZN</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMZN</c:v>
+                  <c:v>BIDU</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>BIDU</c:v>
+                  <c:v>Reddit</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Reddit</c:v>
+                  <c:v>News</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Discord</c:v>
                 </c:pt>
               </c:strCache>
@@ -4209,10 +4203,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Main!$Z$3:$Z$13</c:f>
+              <c:f>Main!$Z$3:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1450678</c:v>
                 </c:pt>
@@ -4222,25 +4216,25 @@
                 <c:pt idx="2">
                   <c:v>77311.713333333348</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>64767.600000000006</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>54671.418333333342</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>28236.23333333333</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>24384.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="7">
                   <c:v>13669.250000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>12277.512833333332</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="9">
                   <c:v>7260.6333333333332</c:v>
                 </c:pt>
               </c:numCache>
@@ -5322,10 +5316,10 @@
   <dimension ref="A1:AE1349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T321" sqref="T321"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5628,7 @@
         <v>775</v>
       </c>
       <c r="Y5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Z5" s="8">
         <f>T24+T25+T26+T39+T62+T74</f>
@@ -5699,6 +5693,17 @@
         <f>(2+(18/60))*N6</f>
         <v>8753.7999999999993</v>
       </c>
+      <c r="Y6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Z6" s="8">
+        <f>T10</f>
+        <v>64767.600000000006</v>
+      </c>
+      <c r="AA6" s="63">
+        <f>Z6/W3</f>
+        <v>2.6987898588246073E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -5761,15 +5766,15 @@
         <v>2005</v>
       </c>
       <c r="Y7" t="s">
-        <v>1236</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="8">
-        <f>T10</f>
-        <v>64767.600000000006</v>
-      </c>
-      <c r="AA7" s="63">
+        <f>T19+T22+T31+T33+T35+T38+T71</f>
+        <v>54671.418333333342</v>
+      </c>
+      <c r="AA7" s="50">
         <f>Z7/W3</f>
-        <v>2.6987898588246073E-2</v>
+        <v>2.2780938210703768E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -5835,15 +5840,15 @@
       <c r="W8" s="8"/>
       <c r="X8" s="50"/>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="8">
-        <f>T19+T22+T31+T33+T35+T38+T71</f>
-        <v>54671.418333333342</v>
+        <f>T12+T61+T57</f>
+        <v>28236.23333333333</v>
       </c>
       <c r="AA8" s="50">
-        <f>Z8/W3</f>
-        <v>2.2780938210703768E-2</v>
+        <f t="shared" ref="AA8:AA14" si="1">Z8/$W$3</f>
+        <v>1.1765706954002513E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -5903,15 +5908,15 @@
         <v>2010</v>
       </c>
       <c r="Y9" t="s">
-        <v>2</v>
+        <v>565</v>
       </c>
       <c r="Z9" s="8">
-        <f>T12+T61+T57</f>
-        <v>28236.23333333333</v>
+        <f>T11</f>
+        <v>24384.75</v>
       </c>
       <c r="AA9" s="50">
-        <f t="shared" ref="AA9:AA15" si="1">Z9/$W$3</f>
-        <v>1.1765706954002513E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.0160839063045927E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -5976,15 +5981,15 @@
       <c r="W10" s="8"/>
       <c r="X10" s="50"/>
       <c r="Y10" t="s">
-        <v>565</v>
+        <v>1237</v>
       </c>
       <c r="Z10" s="8">
-        <f>T11</f>
-        <v>24384.75</v>
+        <f>T17</f>
+        <v>13669.250000000002</v>
       </c>
       <c r="AA10" s="50">
         <f t="shared" si="1"/>
-        <v>1.0160839063045927E-2</v>
+        <v>5.695816006419609E-3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -6037,15 +6042,15 @@
         <v>2000</v>
       </c>
       <c r="Y11" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Z11" s="8">
-        <f>T17</f>
-        <v>13669.250000000002</v>
+        <f>T23+T32+T46+T78+T97+T89+T110+T94+T91+T138+T90+T125+T126+T140</f>
+        <v>12277.512833333332</v>
       </c>
       <c r="AA11" s="50">
         <f t="shared" si="1"/>
-        <v>5.695816006419609E-3</v>
+        <v>5.1158954672072092E-3</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -6105,15 +6110,15 @@
         <v>1994</v>
       </c>
       <c r="Y12" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Z12" s="8">
-        <f>T23+T32+T46+T78+T97+T89+T110+T94+T91+T138+T90+T125+T126+T140</f>
-        <v>12277.512833333332</v>
+        <f>T18</f>
+        <v>7260.6333333333332</v>
       </c>
       <c r="AA12" s="50">
         <f t="shared" si="1"/>
-        <v>5.1158954672072092E-3</v>
+        <v>3.0254206746342157E-3</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -6175,15 +6180,15 @@
       <c r="W13" s="8"/>
       <c r="X13" s="50"/>
       <c r="Y13" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="Z13" s="8">
-        <f>T18</f>
-        <v>7260.6333333333332</v>
+        <f>T60</f>
+        <v>5602.9</v>
       </c>
       <c r="AA13" s="50">
         <f t="shared" si="1"/>
-        <v>3.0254206746342157E-3</v>
+        <v>2.3346626554030703E-3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -6243,12 +6248,12 @@
         <v>1241</v>
       </c>
       <c r="Z14" s="8">
-        <f>T60</f>
-        <v>5602.9</v>
+        <f>T209</f>
+        <v>5511.7333333333336</v>
       </c>
       <c r="AA14" s="50">
         <f t="shared" si="1"/>
-        <v>2.3346626554030703E-3</v>
+        <v>2.2966745756436164E-3</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -6316,17 +6321,6 @@
       </c>
       <c r="W15" s="8"/>
       <c r="X15" s="50"/>
-      <c r="Y15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="Z15" s="8">
-        <f>T209</f>
-        <v>5511.7333333333336</v>
-      </c>
-      <c r="AA15" s="50">
-        <f t="shared" si="1"/>
-        <v>2.2966745756436164E-3</v>
-      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -7062,7 +7056,7 @@
         <v>777</v>
       </c>
       <c r="E28" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F28" s="2">
         <v>140270</v>
@@ -7116,7 +7110,7 @@
         <v>778</v>
       </c>
       <c r="E29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F29" s="2">
         <v>1700</v>
@@ -7170,7 +7164,7 @@
         <v>779</v>
       </c>
       <c r="E30" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F30" s="2">
         <v>1700</v>
@@ -18722,7 +18716,7 @@
         <v>59</v>
       </c>
       <c r="D259" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G259" s="2">
         <v>505</v>
@@ -18775,7 +18769,7 @@
       <c r="H260" s="15">
         <v>3.4790000000000001</v>
       </c>
-      <c r="I260" s="65">
+      <c r="I260" s="15">
         <v>3.1579999999999999</v>
       </c>
       <c r="N260" s="2">
@@ -18820,7 +18814,7 @@
       <c r="H261" s="15">
         <v>1.4590000000000001</v>
       </c>
-      <c r="I261" s="65">
+      <c r="I261" s="15">
         <v>1.087</v>
       </c>
       <c r="N261" s="2">
@@ -18865,7 +18859,7 @@
       <c r="H262" s="15">
         <v>0.59441699999999997</v>
       </c>
-      <c r="I262" s="65">
+      <c r="I262" s="15">
         <v>0.44917699999999999</v>
       </c>
       <c r="N262" s="2">
@@ -18910,7 +18904,7 @@
       <c r="H263" s="15">
         <v>6.6779999999999999</v>
       </c>
-      <c r="I263" s="65">
+      <c r="I263" s="15">
         <v>3.976</v>
       </c>
       <c r="N263" s="2">
@@ -18955,7 +18949,7 @@
       <c r="H264" s="15">
         <v>1.4650000000000001</v>
       </c>
-      <c r="I264" s="65">
+      <c r="I264" s="15">
         <v>1.125</v>
       </c>
       <c r="N264" s="2">
@@ -19000,7 +18994,7 @@
       <c r="H265" s="15">
         <v>1.3149999999999999</v>
       </c>
-      <c r="I265" s="65">
+      <c r="I265" s="15">
         <v>1.085</v>
       </c>
       <c r="N265" s="2">
@@ -19045,7 +19039,7 @@
       <c r="H266" s="15">
         <v>1.5760000000000001</v>
       </c>
-      <c r="I266" s="65">
+      <c r="I266" s="15">
         <v>1.4119999999999999</v>
       </c>
       <c r="N266" s="2">
@@ -19090,7 +19084,7 @@
       <c r="H267" s="15">
         <v>5.73</v>
       </c>
-      <c r="I267" s="65">
+      <c r="I267" s="15">
         <v>3.0960000000000001</v>
       </c>
       <c r="N267" s="2">
@@ -19135,7 +19129,7 @@
       <c r="H268" s="15">
         <v>1.778</v>
       </c>
-      <c r="I268" s="65">
+      <c r="I268" s="15">
         <v>1.613</v>
       </c>
       <c r="N268" s="2">
@@ -19183,7 +19177,7 @@
       <c r="H269" s="15">
         <v>1.365</v>
       </c>
-      <c r="I269" s="65">
+      <c r="I269" s="15">
         <v>1.141</v>
       </c>
       <c r="N269" s="2">
@@ -19228,7 +19222,7 @@
       <c r="H270" s="15">
         <v>0.66282799999999997</v>
       </c>
-      <c r="I270" s="65">
+      <c r="I270" s="15">
         <v>0.62997099999999995</v>
       </c>
       <c r="N270" s="2">
@@ -19273,7 +19267,7 @@
       <c r="H271" s="15">
         <v>1.359</v>
       </c>
-      <c r="I271" s="65">
+      <c r="I271" s="15">
         <v>1.143</v>
       </c>
       <c r="N271" s="2">
@@ -19321,7 +19315,7 @@
       <c r="H272" s="15">
         <v>4.1790000000000003</v>
       </c>
-      <c r="I272" s="65">
+      <c r="I272" s="15">
         <v>3.26</v>
       </c>
       <c r="N272" s="2">
@@ -19369,7 +19363,7 @@
       <c r="H273" s="15">
         <v>3.907</v>
       </c>
-      <c r="I273" s="65">
+      <c r="I273" s="15">
         <v>1.6970000000000001</v>
       </c>
       <c r="N273" s="2">
@@ -19414,7 +19408,7 @@
       <c r="H274" s="15">
         <v>1.6020000000000001</v>
       </c>
-      <c r="I274" s="65">
+      <c r="I274" s="15">
         <v>1.399</v>
       </c>
       <c r="N274" s="2">
@@ -19459,7 +19453,7 @@
       <c r="H275" s="15">
         <v>0.45132499999999998</v>
       </c>
-      <c r="I275" s="65">
+      <c r="I275" s="15">
         <v>0.37930999999999998</v>
       </c>
       <c r="N275" s="2">
@@ -19505,7 +19499,7 @@
       <c r="H276" s="15">
         <v>3.4849999999999999</v>
       </c>
-      <c r="I276" s="65">
+      <c r="I276" s="15">
         <v>2.532</v>
       </c>
       <c r="N276" s="2">
@@ -19550,7 +19544,7 @@
       <c r="H277" s="15">
         <v>0.36067199999999999</v>
       </c>
-      <c r="I277" s="65">
+      <c r="I277" s="15">
         <v>0.324965</v>
       </c>
       <c r="N277" s="2">
@@ -19645,7 +19639,7 @@
       <c r="H279" s="15">
         <v>0.63400400000000001</v>
       </c>
-      <c r="I279" s="65">
+      <c r="I279" s="15">
         <v>0.58486199999999999</v>
       </c>
       <c r="N279" s="2">
@@ -19690,7 +19684,7 @@
       <c r="H280" s="15">
         <v>1.5409999999999999</v>
       </c>
-      <c r="I280" s="65">
+      <c r="I280" s="15">
         <v>1.27</v>
       </c>
       <c r="N280" s="2">
@@ -19735,7 +19729,7 @@
       <c r="H281" s="15">
         <v>0.82627600000000001</v>
       </c>
-      <c r="I281" s="65">
+      <c r="I281" s="15">
         <v>0.48430899999999999</v>
       </c>
       <c r="N281" s="2">
@@ -19780,7 +19774,7 @@
       <c r="H282" s="15">
         <v>1.361</v>
       </c>
-      <c r="I282" s="65">
+      <c r="I282" s="15">
         <v>0.98093799999999998</v>
       </c>
       <c r="N282" s="2">
@@ -19825,7 +19819,7 @@
       <c r="H283" s="15">
         <v>15.34</v>
       </c>
-      <c r="I283" s="65">
+      <c r="I283" s="15">
         <v>11.46</v>
       </c>
       <c r="N283" s="2">
@@ -19870,7 +19864,7 @@
       <c r="H284" s="15">
         <v>1.607</v>
       </c>
-      <c r="I284" s="65">
+      <c r="I284" s="15">
         <v>1.444</v>
       </c>
       <c r="N284" s="2">
@@ -19915,7 +19909,7 @@
       <c r="H285" s="15">
         <v>2.6680000000000001</v>
       </c>
-      <c r="I285" s="65">
+      <c r="I285" s="15">
         <v>1.913</v>
       </c>
       <c r="N285" s="2">
@@ -19960,7 +19954,7 @@
       <c r="H286" s="15">
         <v>0.89293199999999995</v>
       </c>
-      <c r="I286" s="65">
+      <c r="I286" s="15">
         <v>0.85719400000000001</v>
       </c>
       <c r="N286" s="2">
@@ -20011,7 +20005,7 @@
       <c r="H287" s="15">
         <v>1.8959999999999999</v>
       </c>
-      <c r="I287" s="65">
+      <c r="I287" s="15">
         <v>1.18</v>
       </c>
       <c r="N287" s="2">
@@ -20062,7 +20056,7 @@
       <c r="H288" s="15">
         <v>2.863</v>
       </c>
-      <c r="I288" s="65">
+      <c r="I288" s="15">
         <v>1.5289999999999999</v>
       </c>
       <c r="N288" s="2">
@@ -20113,7 +20107,7 @@
       <c r="H289" s="15">
         <v>1.236</v>
       </c>
-      <c r="I289" s="65">
+      <c r="I289" s="15">
         <v>1.016</v>
       </c>
       <c r="N289" s="2">
@@ -20164,7 +20158,7 @@
       <c r="H290" s="15">
         <v>2.2320000000000002</v>
       </c>
-      <c r="I290" s="65">
+      <c r="I290" s="15">
         <v>1.266</v>
       </c>
       <c r="N290" s="2">
@@ -20204,7 +20198,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F291" s="2">
         <v>13870</v>
@@ -20215,7 +20209,7 @@
       <c r="H291" s="15">
         <v>1.262</v>
       </c>
-      <c r="I291" s="65">
+      <c r="I291" s="15">
         <v>1.125</v>
       </c>
       <c r="N291" s="2">
@@ -20255,7 +20249,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F292" s="2">
         <v>80000</v>
@@ -20266,7 +20260,7 @@
       <c r="H292" s="15">
         <v>2.6589999999999998</v>
       </c>
-      <c r="I292" s="65">
+      <c r="I292" s="15">
         <v>2.2229999999999999</v>
       </c>
       <c r="N292" s="2">
@@ -20317,7 +20311,7 @@
       <c r="H293" s="15">
         <v>1.8819999999999999</v>
       </c>
-      <c r="I293" s="65">
+      <c r="I293" s="15">
         <v>0.740479</v>
       </c>
       <c r="N293" s="2">
@@ -20357,7 +20351,7 @@
         <v>296</v>
       </c>
       <c r="E294" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F294" s="2">
         <v>1620</v>
@@ -20368,7 +20362,7 @@
       <c r="H294" s="15">
         <v>1.4</v>
       </c>
-      <c r="I294" s="65">
+      <c r="I294" s="15">
         <v>1.141</v>
       </c>
       <c r="N294" s="2">
@@ -20408,7 +20402,7 @@
         <v>297</v>
       </c>
       <c r="E295" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F295" s="2">
         <v>13870</v>
@@ -20419,7 +20413,7 @@
       <c r="H295" s="15">
         <v>1.2549999999999999</v>
       </c>
-      <c r="I295" s="65">
+      <c r="I295" s="15">
         <v>1.111</v>
       </c>
       <c r="N295" s="2">
@@ -20470,7 +20464,7 @@
       <c r="H296" s="15">
         <v>4.0880000000000001</v>
       </c>
-      <c r="I296" s="65">
+      <c r="I296" s="15">
         <v>2.7330000000000001</v>
       </c>
       <c r="N296" s="2">
@@ -20515,7 +20509,7 @@
       <c r="H297" s="15">
         <v>0.54905700000000002</v>
       </c>
-      <c r="I297" s="65">
+      <c r="I297" s="15">
         <v>0.50130799999999998</v>
       </c>
       <c r="N297" s="2">
@@ -20560,7 +20554,7 @@
       <c r="H298" s="15">
         <v>1.2050000000000001</v>
       </c>
-      <c r="I298" s="65">
+      <c r="I298" s="15">
         <v>0.98501499999999997</v>
       </c>
       <c r="J298" s="2">
@@ -20608,7 +20602,7 @@
       <c r="H299" s="15">
         <v>1.1160000000000001</v>
       </c>
-      <c r="I299" s="65">
+      <c r="I299" s="15">
         <v>0.93360100000000001</v>
       </c>
       <c r="N299" s="2">
@@ -20653,7 +20647,7 @@
       <c r="H300" s="15">
         <v>2.6379999999999999</v>
       </c>
-      <c r="I300" s="65">
+      <c r="I300" s="15">
         <v>2.2690000000000001</v>
       </c>
       <c r="N300" s="2">
@@ -20704,7 +20698,7 @@
       <c r="H301" s="15">
         <v>1.226</v>
       </c>
-      <c r="I301" s="65">
+      <c r="I301" s="15">
         <v>0.92829899999999999</v>
       </c>
       <c r="N301" s="2">
@@ -20749,7 +20743,7 @@
       <c r="H302" s="15">
         <v>4.0380000000000003</v>
       </c>
-      <c r="I302" s="65">
+      <c r="I302" s="15">
         <v>3.5830000000000002</v>
       </c>
       <c r="N302" s="2">
@@ -20800,7 +20794,7 @@
       <c r="H303" s="15">
         <v>3.1240000000000001</v>
       </c>
-      <c r="I303" s="65">
+      <c r="I303" s="15">
         <v>2.1869999999999998</v>
       </c>
       <c r="N303" s="2">
@@ -20840,7 +20834,7 @@
         <v>306</v>
       </c>
       <c r="E304" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F304" s="2">
         <v>108000</v>
@@ -20851,7 +20845,7 @@
       <c r="H304" s="15">
         <v>1.635</v>
       </c>
-      <c r="I304" s="65">
+      <c r="I304" s="15">
         <v>1.028</v>
       </c>
       <c r="N304" s="2">
@@ -20896,7 +20890,7 @@
       <c r="H305" s="15">
         <v>1.224</v>
       </c>
-      <c r="I305" s="65">
+      <c r="I305" s="15">
         <v>0.930786</v>
       </c>
       <c r="N305" s="2">
@@ -20941,7 +20935,7 @@
       <c r="H306" s="15">
         <v>3.9660000000000002</v>
       </c>
-      <c r="I306" s="65">
+      <c r="I306" s="15">
         <v>1.728</v>
       </c>
       <c r="N306" s="2">
@@ -20986,7 +20980,7 @@
       <c r="H307" s="15">
         <v>2.3730000000000002</v>
       </c>
-      <c r="I307" s="65">
+      <c r="I307" s="15">
         <v>1.198</v>
       </c>
       <c r="N307" s="2">
@@ -21031,10 +21025,9 @@
       <c r="H308" s="15">
         <v>1.595</v>
       </c>
-      <c r="I308" s="65">
+      <c r="I308" s="15">
         <v>1.0349999999999999</v>
       </c>
-      <c r="J308" s="66"/>
       <c r="N308" s="2">
         <v>44.68</v>
       </c>
@@ -21077,7 +21070,7 @@
       <c r="H309" s="15">
         <v>5.2679999999999998</v>
       </c>
-      <c r="I309" s="65">
+      <c r="I309" s="15">
         <v>3.7149999999999999</v>
       </c>
       <c r="N309" s="2">
@@ -21122,7 +21115,7 @@
       <c r="H310" s="15">
         <v>0.90221700000000005</v>
       </c>
-      <c r="I310" s="65">
+      <c r="I310" s="15">
         <v>0.75537299999999996</v>
       </c>
       <c r="N310" s="2">
@@ -21167,7 +21160,7 @@
       <c r="H311" s="15">
         <v>1.1060000000000001</v>
       </c>
-      <c r="I311" s="65">
+      <c r="I311" s="15">
         <v>0.86647799999999997</v>
       </c>
       <c r="N311" s="2">
@@ -21212,7 +21205,7 @@
       <c r="H312" s="15">
         <v>1.33</v>
       </c>
-      <c r="I312" s="65">
+      <c r="I312" s="15">
         <v>1.0329999999999999</v>
       </c>
       <c r="N312" s="2">
@@ -21263,7 +21256,7 @@
       <c r="H313" s="15">
         <v>2.7189999999999999</v>
       </c>
-      <c r="I313" s="65">
+      <c r="I313" s="15">
         <v>1.8149999999999999</v>
       </c>
       <c r="N313" s="2">
@@ -21308,7 +21301,7 @@
       <c r="H314" s="15">
         <v>2.8239999999999998</v>
       </c>
-      <c r="I314" s="65">
+      <c r="I314" s="15">
         <v>2.2389999999999999</v>
       </c>
       <c r="N314" s="2">
@@ -21353,7 +21346,7 @@
       <c r="H315" s="15">
         <v>1.5209999999999999</v>
       </c>
-      <c r="I315" s="65">
+      <c r="I315" s="15">
         <v>1.2549999999999999</v>
       </c>
       <c r="N315" s="2">
@@ -21398,7 +21391,7 @@
       <c r="H316" s="15">
         <v>1.099</v>
       </c>
-      <c r="I316" s="65">
+      <c r="I316" s="15">
         <v>0.90659599999999996</v>
       </c>
       <c r="N316" s="2">
@@ -21443,7 +21436,7 @@
       <c r="H317" s="15">
         <v>1.081</v>
       </c>
-      <c r="I317" s="65">
+      <c r="I317" s="15">
         <v>0.65577300000000005</v>
       </c>
       <c r="N317" s="2">
@@ -21488,7 +21481,7 @@
       <c r="H318" s="15">
         <v>1.042</v>
       </c>
-      <c r="I318" s="65">
+      <c r="I318" s="15">
         <v>0.866672</v>
       </c>
       <c r="N318" s="2">
@@ -21539,7 +21532,7 @@
       <c r="H319" s="15">
         <v>1.9039999999999999</v>
       </c>
-      <c r="I319" s="65">
+      <c r="I319" s="15">
         <v>1.468</v>
       </c>
       <c r="N319" s="2">
@@ -21587,7 +21580,7 @@
       <c r="H320" s="15">
         <v>1.3819999999999999</v>
       </c>
-      <c r="I320" s="65">
+      <c r="I320" s="15">
         <v>1.046</v>
       </c>
       <c r="N320" s="2">
@@ -21615,7 +21608,7 @@
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <f t="shared" ref="A309:A342" si="2">A320+1</f>
+        <f t="shared" ref="A321:A342" si="2">A320+1</f>
         <v>215</v>
       </c>
       <c r="D321" t="s">

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D658AC-9CD2-0F46-A087-E5DEFC2F69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A125F-4A66-A843-AE55-556F519A1154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="580" windowWidth="21600" windowHeight="17740" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-42800" yWindow="480" windowWidth="21600" windowHeight="17740" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1257">
   <si>
     <t>GOOG</t>
   </si>
@@ -3823,6 +3823,18 @@
   </si>
   <si>
     <t>pi.ai</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>BZFD</t>
   </si>
 </sst>
 </file>
@@ -5352,10 +5364,10 @@
   <dimension ref="A1:AF1352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I371" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D454" sqref="D454"/>
+      <selection pane="bottomRight" activeCell="H203" sqref="H203:J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5402,14 +5414,8 @@
       <c r="J1" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="N1" s="2">
-        <f>SUM(N3:N211)</f>
-        <v>223237.58200000002</v>
-      </c>
-      <c r="O1" s="2">
-        <f>SUM(O3:O211)-O4-O5-O6-O20-O36</f>
-        <v>225404.76099999982</v>
-      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
       <c r="R1" s="67" t="s">
         <v>746</v>
       </c>
@@ -5586,7 +5592,9 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>5631</v>
+      </c>
       <c r="O4" s="6">
         <v>4761</v>
       </c>
@@ -5655,7 +5663,9 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>2397</v>
+      </c>
       <c r="O5" s="6">
         <v>2089</v>
       </c>
@@ -5724,7 +5734,9 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>3904</v>
+      </c>
       <c r="O6" s="6">
         <v>3806</v>
       </c>
@@ -6687,7 +6699,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>1214</v>
+      </c>
       <c r="O20" s="6">
         <v>982.8</v>
       </c>
@@ -7650,7 +7664,9 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="6">
+        <v>1424</v>
+      </c>
       <c r="O36" s="6">
         <v>1505</v>
       </c>
@@ -17211,6 +17227,12 @@
       <c r="D212" t="s">
         <v>219</v>
       </c>
+      <c r="E212" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F212" s="2">
+        <v>3040</v>
+      </c>
       <c r="G212" s="2">
         <v>111.5</v>
       </c>
@@ -17220,7 +17242,9 @@
       <c r="I212" s="15">
         <v>2.97</v>
       </c>
-      <c r="N212" s="2"/>
+      <c r="N212" s="2">
+        <v>109.6</v>
+      </c>
       <c r="O212" s="2">
         <v>111.5</v>
       </c>
@@ -17257,6 +17281,12 @@
       <c r="D213" t="s">
         <v>220</v>
       </c>
+      <c r="E213" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F213" s="2">
+        <v>40</v>
+      </c>
       <c r="G213" s="2">
         <v>46.84</v>
       </c>
@@ -17266,7 +17296,9 @@
       <c r="I213" s="15">
         <v>1.04</v>
       </c>
-      <c r="N213" s="2"/>
+      <c r="N213" s="2">
+        <v>47.91</v>
+      </c>
       <c r="O213" s="2">
         <v>46.84</v>
       </c>
@@ -17318,7 +17350,9 @@
       <c r="I214" s="15">
         <v>2.359</v>
       </c>
-      <c r="N214" s="2"/>
+      <c r="N214" s="2">
+        <v>95.14</v>
+      </c>
       <c r="O214" s="2">
         <v>89.44</v>
       </c>
@@ -17365,7 +17399,9 @@
       <c r="I215" s="15">
         <v>1.5409999999999999</v>
       </c>
-      <c r="N215" s="2"/>
+      <c r="N215" s="2">
+        <v>53.93</v>
+      </c>
       <c r="O215" s="2">
         <v>55.63</v>
       </c>
@@ -17414,7 +17450,9 @@
       <c r="J216" s="2">
         <v>17.84</v>
       </c>
-      <c r="N216" s="2"/>
+      <c r="N216" s="2">
+        <v>44.97</v>
+      </c>
       <c r="O216" s="2">
         <v>45.78</v>
       </c>
@@ -17460,7 +17498,9 @@
       <c r="I217" s="15">
         <v>2.4009999999999998</v>
       </c>
-      <c r="N217" s="2"/>
+      <c r="N217" s="2">
+        <v>65.819999999999993</v>
+      </c>
       <c r="O217" s="2">
         <v>79.67</v>
       </c>
@@ -17506,7 +17546,9 @@
       <c r="I218" s="15">
         <v>3.69</v>
       </c>
-      <c r="N218" s="2"/>
+      <c r="N218" s="2">
+        <v>134.80000000000001</v>
+      </c>
       <c r="O218" s="2">
         <v>125.3</v>
       </c>
@@ -17552,7 +17594,9 @@
       <c r="I219" s="15">
         <v>1.1279999999999999</v>
       </c>
-      <c r="N219" s="2"/>
+      <c r="N219" s="2">
+        <v>40.200000000000003</v>
+      </c>
       <c r="O219" s="2">
         <v>36.369999999999997</v>
       </c>
@@ -17599,7 +17643,9 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="J220" s="4"/>
-      <c r="N220" s="2"/>
+      <c r="N220" s="2">
+        <v>45.44</v>
+      </c>
       <c r="O220" s="2">
         <v>44.66</v>
       </c>
@@ -17645,7 +17691,9 @@
       <c r="I221" s="15">
         <v>1.3340000000000001</v>
       </c>
-      <c r="N221" s="2"/>
+      <c r="N221" s="2">
+        <v>45.51</v>
+      </c>
       <c r="O221" s="2">
         <v>50.22</v>
       </c>
@@ -17685,6 +17733,9 @@
       <c r="E222" t="s">
         <v>676</v>
       </c>
+      <c r="F222" s="2">
+        <v>12550</v>
+      </c>
       <c r="G222" s="2">
         <v>44.53</v>
       </c>
@@ -17694,7 +17745,9 @@
       <c r="I222" s="15">
         <v>1.3240000000000001</v>
       </c>
-      <c r="N222" s="2"/>
+      <c r="N222" s="2">
+        <v>36.67</v>
+      </c>
       <c r="O222" s="2">
         <v>44.53</v>
       </c>
@@ -17731,6 +17784,12 @@
       <c r="D223" t="s">
         <v>229</v>
       </c>
+      <c r="E223" t="s">
+        <v>743</v>
+      </c>
+      <c r="F223" s="2">
+        <v>356000</v>
+      </c>
       <c r="G223" s="2">
         <v>39.19</v>
       </c>
@@ -17740,7 +17799,9 @@
       <c r="I223" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N223" s="2"/>
+      <c r="N223" s="2">
+        <v>40.04</v>
+      </c>
       <c r="O223" s="2">
         <v>39.19</v>
       </c>
@@ -17786,7 +17847,9 @@
       <c r="I224" s="15">
         <v>2.4500000000000002</v>
       </c>
-      <c r="N224" s="2"/>
+      <c r="N224" s="2">
+        <v>96.6</v>
+      </c>
       <c r="O224" s="2">
         <v>82.42</v>
       </c>
@@ -17832,7 +17895,9 @@
       <c r="I225" s="15">
         <v>1.954</v>
       </c>
-      <c r="N225" s="2"/>
+      <c r="N225" s="2">
+        <v>90.31</v>
+      </c>
       <c r="O225" s="2">
         <v>95.65</v>
       </c>
@@ -17878,7 +17943,9 @@
       <c r="I226" s="15">
         <v>1.3180000000000001</v>
       </c>
-      <c r="N226" s="2"/>
+      <c r="N226" s="2">
+        <v>41.62</v>
+      </c>
       <c r="O226" s="2">
         <v>42.79</v>
       </c>
@@ -17912,8 +17979,14 @@
       <c r="C227" s="2">
         <v>805</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>233</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0</v>
       </c>
       <c r="G227" s="2">
         <v>73.849999999999994</v>
@@ -17924,7 +17997,15 @@
       <c r="I227" s="15">
         <v>2.3660000000000001</v>
       </c>
-      <c r="N227" s="2"/>
+      <c r="K227" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N227" s="2">
+        <v>70.709999999999994</v>
+      </c>
       <c r="O227" s="2">
         <v>73.849999999999994</v>
       </c>
@@ -17964,6 +18045,9 @@
       <c r="E228" t="s">
         <v>539</v>
       </c>
+      <c r="F228" s="2">
+        <v>178000</v>
+      </c>
       <c r="G228" s="2">
         <v>28.6</v>
       </c>
@@ -18010,6 +18094,9 @@
       <c r="D229" t="s">
         <v>235</v>
       </c>
+      <c r="E229" t="s">
+        <v>1236</v>
+      </c>
       <c r="G229" s="2">
         <v>29.85</v>
       </c>
@@ -18151,6 +18238,9 @@
       <c r="E232" t="s">
         <v>563</v>
       </c>
+      <c r="F232" s="2">
+        <v>66370</v>
+      </c>
       <c r="G232" s="2">
         <v>53.81</v>
       </c>
@@ -18242,6 +18332,12 @@
       </c>
       <c r="D234" t="s">
         <v>240</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F234" s="2">
+        <v>4700</v>
       </c>
       <c r="G234" s="2">
         <v>39.369999999999997</v>
@@ -18621,6 +18717,9 @@
       </c>
       <c r="E242" t="s">
         <v>9</v>
+      </c>
+      <c r="F242" s="2">
+        <v>152660</v>
       </c>
       <c r="G242" s="2">
         <v>41.13</v>

--- a/Screens/Websites.xlsx
+++ b/Screens/Websites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/Screens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A5D7F0-CC0D-4841-B059-6275F577471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3E0965-D44E-CE47-9C03-3D95E7B89020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21100" yWindow="-3080" windowWidth="21600" windowHeight="17740" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
+    <workbookView xWindow="-22040" yWindow="-2920" windowWidth="21600" windowHeight="17740" xr2:uid="{0FFE2284-B972-4C79-A048-B8473BC23A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1259">
   <si>
     <t>GOOG</t>
   </si>
@@ -5373,10 +5373,10 @@
   <dimension ref="A1:AF1355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="N227" sqref="N227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22515,9 +22515,11 @@
       <c r="I321" s="68">
         <v>10.43</v>
       </c>
-      <c r="N321" s="2"/>
-      <c r="O321" s="2">
+      <c r="N321" s="2">
         <v>329</v>
+      </c>
+      <c r="O321" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="P321" s="14" t="s">
         <v>775</v>
@@ -22535,7 +22537,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="U321" s="8">
-        <f>20/60*O321</f>
+        <f>20/60*N321</f>
         <v>109.66666666666666</v>
       </c>
     </row>
